--- a/data/hotels_by_city/Dallas/Dallas_shard_697.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_697.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1864 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r525272992-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109353</t>
+  </si>
+  <si>
+    <t>525272992</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>A GREAT Place with Great Staff and Room Attendants!</t>
+  </si>
+  <si>
+    <t>I stayed here for over two months.  It was especially clean and enjoyable.  The Front Desk agents (Gerad and the two ladies were exceptional)  I have stayed at Staybridge for years coast to coast, and I highly recommend the Staybridge in Addison,Texas.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r517331060-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>517331060</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Dallas for work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice room polite staff good stay would recommend this hotel and will probably it again when on business in Dallas. The staff was helpful rooms were clean the reception is a nice touch with a light dinner and drinks and a breakfast Buffett in the morning </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r517159634-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>517159634</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Great Service, Excellent Rates.</t>
+  </si>
+  <si>
+    <t>We have a yearly event at work, and for three years now we've used this hotel. Our guests always ask for it. It sits right off the service road and the Dallas Tollway, in the heart of the business section of Addison. The hotel has been there a while, but it underwent a full renovation recently. It has clean, nicely decorated rooms, new decor and a hot-breakfast buffet. The GM, Shannon, is one of the nicest, most reliable people you can deal with, and the staff is prompt and friendly. I highly recommend it for large groups and / or corporate events.Other than a small pool located to the side (and not the best of them, but adequate) and the breakfast buffet, the hotel doesn't have any amenities, and it is also not close to attractions (The Dallas Galleria Mall is about 1.5 miles away). But among the hotels in the area, this one for sure is worth a try if you're looking for a nice and friendly place to stay at real competitive prices.NOTE: We didn't use the shuttle though I think they have one, but I think its availability is limited. Contact the hotel's front desk for any questions.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We have a yearly event at work, and for three years now we've used this hotel. Our guests always ask for it. It sits right off the service road and the Dallas Tollway, in the heart of the business section of Addison. The hotel has been there a while, but it underwent a full renovation recently. It has clean, nicely decorated rooms, new decor and a hot-breakfast buffet. The GM, Shannon, is one of the nicest, most reliable people you can deal with, and the staff is prompt and friendly. I highly recommend it for large groups and / or corporate events.Other than a small pool located to the side (and not the best of them, but adequate) and the breakfast buffet, the hotel doesn't have any amenities, and it is also not close to attractions (The Dallas Galleria Mall is about 1.5 miles away). But among the hotels in the area, this one for sure is worth a try if you're looking for a nice and friendly place to stay at real competitive prices.NOTE: We didn't use the shuttle though I think they have one, but I think its availability is limited. Contact the hotel's front desk for any questions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r483524623-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>483524623</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Very Clean and Friendly Staff</t>
+  </si>
+  <si>
+    <t>This property is very clean and the staff is friendly and helpful. The suite was much smaller than suites I have had at other Staybridge locations. This was a little disappointing to me.  I am accustomed to having my sleeping area totally separate from the rest of the suite.  I also found the kitchen area to be rather small. I do use the kitchen when I stay at Staybridge so it is important to me.  The exercise room was more than adequate for me to get my daily workout.  The pool area was also nice but during my stay it was too cool outside to use the pool.There is a hot breakfast daily and a social with a light dinner and free wine and beer  three nights a week (Monday-Wednesday).  I tip my hat to the sweet lady who prepares the breakfast and dinner.  She works very hard to make sure every one had what they need and she does it with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This property is very clean and the staff is friendly and helpful. The suite was much smaller than suites I have had at other Staybridge locations. This was a little disappointing to me.  I am accustomed to having my sleeping area totally separate from the rest of the suite.  I also found the kitchen area to be rather small. I do use the kitchen when I stay at Staybridge so it is important to me.  The exercise room was more than adequate for me to get my daily workout.  The pool area was also nice but during my stay it was too cool outside to use the pool.There is a hot breakfast daily and a social with a light dinner and free wine and beer  three nights a week (Monday-Wednesday).  I tip my hat to the sweet lady who prepares the breakfast and dinner.  She works very hard to make sure every one had what they need and she does it with a smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r479132083-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>479132083</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>This Hotel ROCKS!!!</t>
+  </si>
+  <si>
+    <t>Since the first phone call to reserve my company's rooms for an extended stay while working out of town, I have been extremely satisfied as well as my employees. The staff is very positive and happy to help all the customers. As a frequent traveler and a Spire Elite I am very proud and grateful of this hotels cleanliness, comfort, and helpful staff.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r475010820-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>475010820</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Very clean, quiet room with a fabulous full breakfast.</t>
+  </si>
+  <si>
+    <t>Reasonable rates for the location in North Dallas only minutes from the Galleria Mall. Bed was comfy, shower was great, and the room was a 2 room suite with a full kitchen. Breakfast was very tasty with all the items you know and love. Serving area was very clean and items were replaced as quickly as they were consumed. Hotel desk clerk was very friendly and helpful and check in/out was a breeze. We are returning to this hotel again this weekend!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r460497463-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>460497463</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Great place and friendly!</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights on a business trip.  Staff are very friendly and accommodating.  Room was very clean and bedding comfortable.  Free breakfast was good - scrambled eggs, bacon, home fries, yogurt, fruit, cereal - the typical choices.I enjoyed my stay and they have a complimentary shuttle to/from local business offices.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r455858327-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>455858327</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel &amp; Service!</t>
+  </si>
+  <si>
+    <t>My friend &amp; I stayed here last September. I was so impressed with Carl Guidry, the friendly staff and the property, that this was my first choice for my return visit.  The rooms are clean, have a refrigerator, and microwave. The staff really cares about you and that everything is right during your stay. I did have breakfast one morning, healthy yogurt and fruit. I travel a lot, this property has the most caring staff, I have come across. Keep up the great work! I will see you on my next visit.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r453992283-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>453992283</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>I will come back</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 4 nights in a business trip. People at the front desk was very friendly, the room was very clean and comfortable, the breakfast was quite good.The location of the hotel is quite convenient, having</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r431802051-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>431802051</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>After a long day of sightseeing, we decided to check into this hotel. What a great decision. The Front Manager Carl was the absolute best! He started our stay off with his exceptional customer service and the experience was never a let down. Our room was spacious and clean. The breakfast and cocktail hours were an added bonus. We enjoyed our stay so much that we did not leave the hotel for one whole day! Will stay here again.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r397043331-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>397043331</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviceable Hotel </t>
+  </si>
+  <si>
+    <t>I've stayed at the Staybridge Addison twice and both stays were ok. Seems like a lot of long term guests many who are students in the area. Also saw a lot of guests with dogs - something I'm not used to seeing very often on the road. They do a nice job with daily breakfasts and the Monday-Wednesday dinner service was an unexpected benefit. There's not much around the area but, it's a short walk or Uber to downtown Addison where you can find bars etc. The rooms are set up with extended stay in mind - small kitchenettes and a larger seating area with a couch. Outdoor pool looks nice but I haven't used. The exercise room equipment is really dated. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Adam M, Front Office Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at the Staybridge Addison twice and both stays were ok. Seems like a lot of long term guests many who are students in the area. Also saw a lot of guests with dogs - something I'm not used to seeing very often on the road. They do a nice job with daily breakfasts and the Monday-Wednesday dinner service was an unexpected benefit. There's not much around the area but, it's a short walk or Uber to downtown Addison where you can find bars etc. The rooms are set up with extended stay in mind - small kitchenettes and a larger seating area with a couch. Outdoor pool looks nice but I haven't used. The exercise room equipment is really dated. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r380701250-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>380701250</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Staybridge suites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice hotel!!! We had a suite with a pull out couch and a bedroom, the bedroom door did not lock but it was still nice to have 2 rooms. The room was clean and decent size. There was a full breakfast and the pool was nice and clean. Staff was friendly. All around u was a good stay. Only thing is gps wanted me to go in on the back side of the building and I drove around twice before I realized it was the hotel not an apt. Complex. They need a better sign so it's easier to find this hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r372171642-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>372171642</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Very roomy and great amenities</t>
+  </si>
+  <si>
+    <t>We had a two-room suite with kitchen, with plenty of room. Hot and cold breakfast buffets and internet were included at no extra charge.  Staff were very courteous and helpful and facilities were clean and well maintained.  We have stayed at Staybridge Suites before and there are always extras like free networking parties with food and drinks. This is a multi-building, low-rise facility (three stories) and adequate parking near all rooms. Only negative was that you can't buy beer or wine on the premises so it is BYOB except for the parties. We would stay here again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r371704280-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>371704280</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>I stay here twice a year .. 4 to 6 weeks at a time</t>
+  </si>
+  <si>
+    <t>I'm a Vietnam Veteran and come back to Texas from where I live in Nicaragua twice a year for labs, doctors and treatments for my exposure to "Agent Orange" and always stay here at the Addison, Staybridge Suites. Unlike when I returned from Vietnam, I am welcomed back by everyone here, from the Mgr. Henry , front desk personal, kitchen staff, maintainence staff and house cleaning staff. Everyone here treats me as family. I have a limited budget and could stay at several other places but chose to stay here because how I'm treated. "it's a welcome back I never received when I returned home in 1968.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r371595558-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>371595558</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>A  Short Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were in Dallas for two night to attend a conference. The room was nice enough, but not quite as nice as I have come to expect from Staybridge Suites. My only real complaint is that the mattress on the pull out couch had several stains. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r364478650-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>364478650</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Best nights sleep in forever</t>
+  </si>
+  <si>
+    <t>We had the best time at this hotel . The staff was overly helpful and very willing to make sure our stay was satisfactory. The rooms were well stocked with everything we needed and then some . Awesome time and best nights sleep in a long time . Thank you .</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r364227703-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>364227703</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Great location in Addison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evening happy hour and food was unexpected. We enjoyed our stay. The hotel was just remodeled and looks brand new. All of Addison's great stores and restaurants are nearby. Close to Addison airport without the noise. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r364000646-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>364000646</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We spent one night here the first weekend of April.  Arriving from the north was a bit tricky in locating the hotel, but coming from the south would have been a breeze.  The front desk staff was very courteous and welcomed us with a smile.
+Our room was surprisingly large with everything you might need for one night or many nights.  The main room had a sleeper sofa and an overstuffed chair as well as a large TV and nice sized desk.  The full kitchen was also located in this room and was fully stocked with dishes, pans and silverware.
+The bedroom was a separate room with closing doors.  It had a very comfortable king bed with two nightstands.  The pillows were to fluffy for our tastes, but were okay for one night.  If we had stayed longer, I would have asked for flatter pillows.
+The bathroom area was split with a separate room for the tub/shower and toilet and another room with a large vanity and closet just off the bedroom.  There was plenty of room for two people to stand at the vanity together.
+The free breakfast had both hot and cold food.  There was scrambled eggs and sausage in the hot plates and cereals, breads, fruit and juices.  There was also a waffle machine if you wanted to make yourself a waffle.
+For the price and location, this hotel was a great find!  The wi-if was free...We spent one night here the first weekend of April.  Arriving from the north was a bit tricky in locating the hotel, but coming from the south would have been a breeze.  The front desk staff was very courteous and welcomed us with a smile.Our room was surprisingly large with everything you might need for one night or many nights.  The main room had a sleeper sofa and an overstuffed chair as well as a large TV and nice sized desk.  The full kitchen was also located in this room and was fully stocked with dishes, pans and silverware.The bedroom was a separate room with closing doors.  It had a very comfortable king bed with two nightstands.  The pillows were to fluffy for our tastes, but were okay for one night.  If we had stayed longer, I would have asked for flatter pillows.The bathroom area was split with a separate room for the tub/shower and toilet and another room with a large vanity and closet just off the bedroom.  There was plenty of room for two people to stand at the vanity together.The free breakfast had both hot and cold food.  There was scrambled eggs and sausage in the hot plates and cereals, breads, fruit and juices.  There was also a waffle machine if you wanted to make yourself a waffle.For the price and location, this hotel was a great find!  The wi-if was free and worked great.  I would definitely recommend it and would stay there again if we're back in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent one night here the first weekend of April.  Arriving from the north was a bit tricky in locating the hotel, but coming from the south would have been a breeze.  The front desk staff was very courteous and welcomed us with a smile.
+Our room was surprisingly large with everything you might need for one night or many nights.  The main room had a sleeper sofa and an overstuffed chair as well as a large TV and nice sized desk.  The full kitchen was also located in this room and was fully stocked with dishes, pans and silverware.
+The bedroom was a separate room with closing doors.  It had a very comfortable king bed with two nightstands.  The pillows were to fluffy for our tastes, but were okay for one night.  If we had stayed longer, I would have asked for flatter pillows.
+The bathroom area was split with a separate room for the tub/shower and toilet and another room with a large vanity and closet just off the bedroom.  There was plenty of room for two people to stand at the vanity together.
+The free breakfast had both hot and cold food.  There was scrambled eggs and sausage in the hot plates and cereals, breads, fruit and juices.  There was also a waffle machine if you wanted to make yourself a waffle.
+For the price and location, this hotel was a great find!  The wi-if was free...We spent one night here the first weekend of April.  Arriving from the north was a bit tricky in locating the hotel, but coming from the south would have been a breeze.  The front desk staff was very courteous and welcomed us with a smile.Our room was surprisingly large with everything you might need for one night or many nights.  The main room had a sleeper sofa and an overstuffed chair as well as a large TV and nice sized desk.  The full kitchen was also located in this room and was fully stocked with dishes, pans and silverware.The bedroom was a separate room with closing doors.  It had a very comfortable king bed with two nightstands.  The pillows were to fluffy for our tastes, but were okay for one night.  If we had stayed longer, I would have asked for flatter pillows.The bathroom area was split with a separate room for the tub/shower and toilet and another room with a large vanity and closet just off the bedroom.  There was plenty of room for two people to stand at the vanity together.The free breakfast had both hot and cold food.  There was scrambled eggs and sausage in the hot plates and cereals, breads, fruit and juices.  There was also a waffle machine if you wanted to make yourself a waffle.For the price and location, this hotel was a great find!  The wi-if was free and worked great.  I would definitely recommend it and would stay there again if we're back in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r361351674-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>361351674</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>The rooms were recently renovated so there was no issue with the actual room. However, the walls are VERY thin. I didn't sleep well any of my 3 nights because I could hear traffic (close to the highway), constant elevator noises and loud guests walking through the halls at night. Although the rooms were ok, I probably wouldn't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>The rooms were recently renovated so there was no issue with the actual room. However, the walls are VERY thin. I didn't sleep well any of my 3 nights because I could hear traffic (close to the highway), constant elevator noises and loud guests walking through the halls at night. Although the rooms were ok, I probably wouldn't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r359204185-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>359204185</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>SLOW WI FI, Unqualified front desk reaction.</t>
+  </si>
+  <si>
+    <t>I was the guest check in on Mar/23 and check out on Mar/24, was advised the invoice will be sent to me the other day due to hotel system restriction. It's Mar/27 and I haven't got any email regarding my invoice.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>I was the guest check in on Mar/23 and check out on Mar/24, was advised the invoice will be sent to me the other day due to hotel system restriction. It's Mar/27 and I haven't got any email regarding my invoice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r353091005-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>353091005</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>PCS to  North Dallas</t>
+  </si>
+  <si>
+    <t>My stay was greats as this was a same day reservation. Suite was clean and quiet. The breakfast and dinner socials were great.  The staff was very respectful, nice and very informative. Would definitely stay again.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r346751337-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>346751337</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Best hotel by far hotel staff friendly helpful food was excellent rooms clean and stocked great location. Felt like home.would recommend to family and friends .free laundry a plus and free dinner during week really helps out.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r345937202-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>345937202</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Very friendly</t>
+  </si>
+  <si>
+    <t>We stayed one night in late January due to my improper scheduling for a convention. Although the room was small, it had all the necessary items to make the stay enjoyable. A full size coffee pot was a great plus. Easy to get in  and out of and a very friendly staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r343833761-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>343833761</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Nice renovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was nicely renovated. Light dinner is M-W.  Front desk Ryan is ever so polite and professional.  Free laundry is very helpful.  Expanded breakfast daily.  Only hiccup, hard to find from the street due to the lack of signage.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r334473764-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>334473764</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and quiet, with a few critical deficiencies</t>
+  </si>
+  <si>
+    <t>As an introductory disclaimer, I used an award night redemption and booked the room only a few hours before arriving.The room was great, and the hotel was very quiet. There was plenty of space, the kitchen had what I needed, and the desk are was adequate.  Though my stay was not of the extended variety, I'm sure I'd be equally satisfied with the aforementioned regardless of stay length.  The wireless internet was borderline unusable. On my laptop, it was extraordinarily lethargic.  Using my mobile phone, I had to turn the wireless off because it was taking over a minute just to navigate from one web page to another.Also, the breakfast was not good. The eggs smelled sulfuric and, although they tasted fine, I just could not get past the smell when I'd take a bite. The honeydew were rock hard and sour, tasting more like a lemon than a melon. Finally, the waffle batter dispenser was empty, which was a major bummer and perhaps the low point of 2015 for me.I probably would not stay here again, solely because I am a big fan of breakfast, and there are much better options for complimentary hotel breakfasts. If you can do without breakfast or Internet, the comfort and noise level of the hotel are as good as it gets.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded January 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2016</t>
+  </si>
+  <si>
+    <t>As an introductory disclaimer, I used an award night redemption and booked the room only a few hours before arriving.The room was great, and the hotel was very quiet. There was plenty of space, the kitchen had what I needed, and the desk are was adequate.  Though my stay was not of the extended variety, I'm sure I'd be equally satisfied with the aforementioned regardless of stay length.  The wireless internet was borderline unusable. On my laptop, it was extraordinarily lethargic.  Using my mobile phone, I had to turn the wireless off because it was taking over a minute just to navigate from one web page to another.Also, the breakfast was not good. The eggs smelled sulfuric and, although they tasted fine, I just could not get past the smell when I'd take a bite. The honeydew were rock hard and sour, tasting more like a lemon than a melon. Finally, the waffle batter dispenser was empty, which was a major bummer and perhaps the low point of 2015 for me.I probably would not stay here again, solely because I am a big fan of breakfast, and there are much better options for complimentary hotel breakfasts. If you can do without breakfast or Internet, the comfort and noise level of the hotel are as good as it gets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r333355881-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>333355881</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>The hotel is clean. It's fine as long as you don't require lights in your room. Literally had to go to my car to put makeup on because the bathroom was so dark. Went down the street to the 7-11 and bought light bulbs so I could get some work done at the desk. MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam M, Front Office Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is clean. It's fine as long as you don't require lights in your room. Literally had to go to my car to put makeup on because the bathroom was so dark. Went down the street to the 7-11 and bought light bulbs so I could get some work done at the desk. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r328692799-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>328692799</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Amazing Hotel, Staff, &amp; New Rooms</t>
+  </si>
+  <si>
+    <t>I have been at this Hotel since July and LOVE IT!!! I was very lucky to get one of the new rooms from the start and they are AMAZING. The free food and drinks are of good quality and who complains about a free HOT breakfast 7 days a week and free dinner 3 days a week that includes alcohol during dinner time. The staff are amazing people, Front Office, Housekeeping, and the Cooks. Adam has been really amazing during my stay and very helpful. As a guest of this hotel I saw a review and wanted to say that this hotel is FAR FAR from discriminating unlike the review states (specially for the reason). All you need to do is look at all the different staff they have working here. This hotel WILL charge you if you smoke in your room as its a NON smoking hotel. You sign a disclaimer when you check-in that lets you know if you smoke in your room you will be charged. I think its a good thing people get charged when they smoke in their room as it’s VERY inconsiderate for other guest as their smoke is smelled in the halls and at times in the rooms so your cloths end up smelling of cigarette smoke. One small thing and that is the internet yes its free but some days its SOOOO slow it can drive you crazy as you can't do...I have been at this Hotel since July and LOVE IT!!! I was very lucky to get one of the new rooms from the start and they are AMAZING. The free food and drinks are of good quality and who complains about a free HOT breakfast 7 days a week and free dinner 3 days a week that includes alcohol during dinner time. The staff are amazing people, Front Office, Housekeeping, and the Cooks. Adam has been really amazing during my stay and very helpful. As a guest of this hotel I saw a review and wanted to say that this hotel is FAR FAR from discriminating unlike the review states (specially for the reason). All you need to do is look at all the different staff they have working here. This hotel WILL charge you if you smoke in your room as its a NON smoking hotel. You sign a disclaimer when you check-in that lets you know if you smoke in your room you will be charged. I think its a good thing people get charged when they smoke in their room as it’s VERY inconsiderate for other guest as their smoke is smelled in the halls and at times in the rooms so your cloths end up smelling of cigarette smoke. One small thing and that is the internet yes its free but some days its SOOOO slow it can drive you crazy as you can't do anything. When I come back to Addison this will be my #1 choice. Keep up the GREAT work.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I have been at this Hotel since July and LOVE IT!!! I was very lucky to get one of the new rooms from the start and they are AMAZING. The free food and drinks are of good quality and who complains about a free HOT breakfast 7 days a week and free dinner 3 days a week that includes alcohol during dinner time. The staff are amazing people, Front Office, Housekeeping, and the Cooks. Adam has been really amazing during my stay and very helpful. As a guest of this hotel I saw a review and wanted to say that this hotel is FAR FAR from discriminating unlike the review states (specially for the reason). All you need to do is look at all the different staff they have working here. This hotel WILL charge you if you smoke in your room as its a NON smoking hotel. You sign a disclaimer when you check-in that lets you know if you smoke in your room you will be charged. I think its a good thing people get charged when they smoke in their room as it’s VERY inconsiderate for other guest as their smoke is smelled in the halls and at times in the rooms so your cloths end up smelling of cigarette smoke. One small thing and that is the internet yes its free but some days its SOOOO slow it can drive you crazy as you can't do...I have been at this Hotel since July and LOVE IT!!! I was very lucky to get one of the new rooms from the start and they are AMAZING. The free food and drinks are of good quality and who complains about a free HOT breakfast 7 days a week and free dinner 3 days a week that includes alcohol during dinner time. The staff are amazing people, Front Office, Housekeeping, and the Cooks. Adam has been really amazing during my stay and very helpful. As a guest of this hotel I saw a review and wanted to say that this hotel is FAR FAR from discriminating unlike the review states (specially for the reason). All you need to do is look at all the different staff they have working here. This hotel WILL charge you if you smoke in your room as its a NON smoking hotel. You sign a disclaimer when you check-in that lets you know if you smoke in your room you will be charged. I think its a good thing people get charged when they smoke in their room as it’s VERY inconsiderate for other guest as their smoke is smelled in the halls and at times in the rooms so your cloths end up smelling of cigarette smoke. One small thing and that is the internet yes its free but some days its SOOOO slow it can drive you crazy as you can't do anything. When I come back to Addison this will be my #1 choice. Keep up the GREAT work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r297366595-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>297366595</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Discrimination and Stereotype</t>
+  </si>
+  <si>
+    <t>I have stayed in several Staybrige Suites. This is buy far the worst . Customer service here is horrible. They come up with bocus charges to charge your card especially with African Americana. Saying they need to cover damage to the room and smoke damage. 1 day they say its for the pantry incase you may use it they next its for damage . I will never stay again . But on a good note the food is good and fresh . Pool is clean . House keeping does an amazing job . Just front desk staff is horrible!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Adam M, Front Office Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed in several Staybrige Suites. This is buy far the worst . Customer service here is horrible. They come up with bocus charges to charge your card especially with African Americana. Saying they need to cover damage to the room and smoke damage. 1 day they say its for the pantry incase you may use it they next its for damage . I will never stay again . But on a good note the food is good and fresh . Pool is clean . House keeping does an amazing job . Just front desk staff is horrible!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r292115866-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>292115866</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>This place can't be beat! Great daily breakfast and dinner 3 nights a week are included with the stay. Very clean and very nice staff from the front desk, the ladies in kitchen, and housekeeping. A home away from home with a full size fridge and mini kitchen in the room. A perfect fit for family's - kids slept on the pullout in the living room area and we had a room with French doors that we could close so we could watch tv at night. Way easier than a regular hotel room. We stayed here for a week while we renovated our home and will return for sure!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r273987922-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>273987922</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Great stay and awesome staff</t>
+  </si>
+  <si>
+    <t>Hotel is under routine renovation.  The construction crews work during the day so this is no problem.  Lauren, check-in associate, is absolutely one of the most professional hotel staff that I have encountered. Natalie, sales manager, took time out of her busy day to help me with the computer access in the business center.  Every staff member that I encountered asked me if they may be of assistance.  Room on the third floor was located across from the elevator.  I did not hear the elevator throughout my entire stay.  The room was spotless and fresh.  It had a kitchen with utensils so that you may cook if you elect.  The bathroom had a full bathtub/shower.  Bedding was wonderful. Free wifi and free laundry facilities.  Gym includes a variety of gym equipment but they do not have an exercise bike available. Full breakfast includes everything -- meat, two types of eggs, oatmeal/cereal, waffles, fresh fruit variety, cottage cheese, toast/muffins, etc.  They have a Tues-Thurs evening dinner with beer/wine. You will be pleased with this incredible facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Hotel is under routine renovation.  The construction crews work during the day so this is no problem.  Lauren, check-in associate, is absolutely one of the most professional hotel staff that I have encountered. Natalie, sales manager, took time out of her busy day to help me with the computer access in the business center.  Every staff member that I encountered asked me if they may be of assistance.  Room on the third floor was located across from the elevator.  I did not hear the elevator throughout my entire stay.  The room was spotless and fresh.  It had a kitchen with utensils so that you may cook if you elect.  The bathroom had a full bathtub/shower.  Bedding was wonderful. Free wifi and free laundry facilities.  Gym includes a variety of gym equipment but they do not have an exercise bike available. Full breakfast includes everything -- meat, two types of eggs, oatmeal/cereal, waffles, fresh fruit variety, cottage cheese, toast/muffins, etc.  They have a Tues-Thurs evening dinner with beer/wine. You will be pleased with this incredible facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r257561770-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>257561770</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Needs Update</t>
+  </si>
+  <si>
+    <t>This hotel is in desperate need of an update.  The common areas were not cleaned the entire time we were there.  Very old and run down on the inside.  The furniture was dated, worn and the beds were very uncomfortable.  The staff was friendly and very helpful.  The location was in close proximity of good restaurants and shopping.  The breakfast was good and the breakfast staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is in desperate need of an update.  The common areas were not cleaned the entire time we were there.  Very old and run down on the inside.  The furniture was dated, worn and the beds were very uncomfortable.  The staff was friendly and very helpful.  The location was in close proximity of good restaurants and shopping.  The breakfast was good and the breakfast staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r253707949-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>253707949</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Excellent stay at a Reasonable price</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel for a basic stay near amenities. Overall quality: the hotel is undergoing rennovations, therefore a small amount of construction but it does not affect the hotel itself. Perks: breakfast daily that is varied and has a great selection, pantry for quickly needed items, quick response from staff, well stocked kitchenette.Cleanliness: the staff is respectful of the "no" sign, and when they clean its very well done. Location: very well located - minutes from restaurants on Beltline and Wal-MartObservations: bed is spring, pillows are very soft, only 1 TV if you have more than one guest</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r252961426-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>252961426</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>Do not go there to sleep.</t>
+  </si>
+  <si>
+    <t>I stayed one night and it was the worst bed and mattress I have ever seen. Do not be fooled by the outside look. It is very old and noisy with mechanical repair, street and people in the hallway. Their mattress almost broke my neck in the morning. Bed is at least 10 year old, with a roller in the bottom. But, yes it is clean and they have an average breakfast. Bottom line, I would not go their to rest for a good night sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded February 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2015</t>
+  </si>
+  <si>
+    <t>I stayed one night and it was the worst bed and mattress I have ever seen. Do not be fooled by the outside look. It is very old and noisy with mechanical repair, street and people in the hallway. Their mattress almost broke my neck in the morning. Bed is at least 10 year old, with a roller in the bottom. But, yes it is clean and they have an average breakfast. Bottom line, I would not go their to rest for a good night sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r219726804-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>219726804</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Good for longer stays</t>
+  </si>
+  <si>
+    <t>This is a fairly standard hotel for longer stays. The room I had on the third floor was OK without any noise from the freeway nearby. WiFi worked well and the room was clean although feeling a bit dated. Service was good, breakfast slightly disappointing. Check-in by a young lady at the front desk was pleasant and efficient. I would stay there again.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r217655913-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>217655913</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>The hotel was adequate and in an ideal location near Addison.  The room was clean with some nice amenities you'd expect in a long term stay hotel.  The lady that checked us in was very friendly and made the check-in process pleasant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r208202502-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>208202502</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Your website is deceiving.</t>
+  </si>
+  <si>
+    <t>A queen bed is a queen bed. You can't put a full bed in the room and call it a queen. If your website says you have a king suite avaliable then you sld have one avaliable. If your website says you have a jaquizzi by the pool and shows pictures of a jaquizzi by the pool then I'm gonna be expecting one by the pool. Currently staying here for a small weekend get away but very disappointed. It looked perfect on line but after check in it didn't take long to discover it was all lies MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded June 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2014</t>
+  </si>
+  <si>
+    <t>A queen bed is a queen bed. You can't put a full bed in the room and call it a queen. If your website says you have a king suite avaliable then you sld have one avaliable. If your website says you have a jaquizzi by the pool and shows pictures of a jaquizzi by the pool then I'm gonna be expecting one by the pool. Currently staying here for a small weekend get away but very disappointed. It looked perfect on line but after check in it didn't take long to discover it was all lies More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r202839209-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>202839209</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Great staff &amp; service</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at the Staybridge Suites during the month of April for an extended business trip. The rooms are efficiency units with 2 burner stove top microwave oven and a refrigerator The staff was extremely helpful and friendly. The variety of the daily breakfast was changed each day so that I was never bored with the same choices.  Tuesday through Thursday they had a managers reception where complimentary wine or beer as well as different dinner items were featured. It varied from hamburgers 2 tacos from sandwiches to pasta dishes. I would highly recommend the Staybridge Suites Dallas Addison for any business traveler planning A extended stay trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at the Staybridge Suites during the month of April for an extended business trip. The rooms are efficiency units with 2 burner stove top microwave oven and a refrigerator The staff was extremely helpful and friendly. The variety of the daily breakfast was changed each day so that I was never bored with the same choices.  Tuesday through Thursday they had a managers reception where complimentary wine or beer as well as different dinner items were featured. It varied from hamburgers 2 tacos from sandwiches to pasta dishes. I would highly recommend the Staybridge Suites Dallas Addison for any business traveler planning A extended stay trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r195735358-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>195735358</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Please don't stay</t>
+  </si>
+  <si>
+    <t>One of the worst customer experiences for a hotel that I have ever had. The staff is uncaring and the standard response to every inquiry is that there is nothing u can do about that. If you book a room with a sleeper sofa but advised that it does not come with full linens. The sofa bed has two sheets and nothing else. I would change hotels if I could but all rooms are booked in the city. While other staybridge properties my be fine, this one has ruined the reputation of the entire chain for me and I will never stay at this hotel brand again. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded March 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2014</t>
+  </si>
+  <si>
+    <t>One of the worst customer experiences for a hotel that I have ever had. The staff is uncaring and the standard response to every inquiry is that there is nothing u can do about that. If you book a room with a sleeper sofa but advised that it does not come with full linens. The sofa bed has two sheets and nothing else. I would change hotels if I could but all rooms are booked in the city. While other staybridge properties my be fine, this one has ruined the reputation of the entire chain for me and I will never stay at this hotel brand again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r187313154-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>187313154</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Great Stay for the price.</t>
+  </si>
+  <si>
+    <t>We were very pleased with our stay at Staybridge Suites Dallas!  The room and bathroom were very clean.  I know Staybridge is used a lot for business travel, but we loved the set up of the room for our family.  Having a separate bedroom with a TV was a big plus.  This allowed everyone to have a shot at watching what they liked at some point during wind down time.  All staff members we encountered were very friendly.  It is not really close to much of the attractions or downtown, but it is close to an In-n-out Burger which is a plus! Check in and Check out went very smoothly.  This was a great experience for us and will definitely be our choice on our next weekend getaway to Dallas.  Can't wait!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>We were very pleased with our stay at Staybridge Suites Dallas!  The room and bathroom were very clean.  I know Staybridge is used a lot for business travel, but we loved the set up of the room for our family.  Having a separate bedroom with a TV was a big plus.  This allowed everyone to have a shot at watching what they liked at some point during wind down time.  All staff members we encountered were very friendly.  It is not really close to much of the attractions or downtown, but it is close to an In-n-out Burger which is a plus! Check in and Check out went very smoothly.  This was a great experience for us and will definitely be our choice on our next weekend getaway to Dallas.  Can't wait!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r182121414-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>182121414</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel for the Price</t>
+  </si>
+  <si>
+    <t>We stayed here for the night while visiting my daughter at UT Dallas.  The room was clean, spacious and comfortable.  The only complaint I have is the the sleeper sofa was overused in that you couldn't sit on it without feeling like you were sitting on the floor.  Otherwise a great place.  And the breakfast was awesome and everything was fresh.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r181496120-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>181496120</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average </t>
+  </si>
+  <si>
+    <t>Got to the property after midnight, clerk was very friendly. Property could use some updates. Carpeting in hallway and room was stained, several bathroom tiles were cracked. Mattress was sunk in in the middle. Breakfast was great. I went down 10 minutes before they stop serving, &amp; newly cooked bacon was brought out. Most properties wouldn't do that! Overall a decent stay. Staff &amp; breakfast were great, rooms just need a little $$ thrown their way. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Got to the property after midnight, clerk was very friendly. Property could use some updates. Carpeting in hallway and room was stained, several bathroom tiles were cracked. Mattress was sunk in in the middle. Breakfast was great. I went down 10 minutes before they stop serving, &amp; newly cooked bacon was brought out. Most properties wouldn't do that! Overall a decent stay. Staff &amp; breakfast were great, rooms just need a little $$ thrown their way. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r180527255-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>180527255</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Business Meeting</t>
+  </si>
+  <si>
+    <t>Brought in 10 members of my team for a 2 day meeting.  Henry was VERY helpful in getting everything organized and set up.  Staff all very accomodating and helpful.  Meeting room was small, but fine for our group.  (I'd suggest installing a pull down screen for future meetings!).  They helped with everything from sourcing a projector, room set up, power for laptops, conf phone, recommending and ordering lunch, drinks during the breaks, etc.Rooms were also very nice - large with kitchen, flat screen HD TV's.  Free breakfast was good.  All things considered, a very good value and we will be back for our next meeting.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r169128750-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>169128750</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Comfortable hotel, distasteful customer service</t>
+  </si>
+  <si>
+    <t>The customer service was horrible, from the room mixup, to the shuttle situation, and mostly with the key problems. The rooms were clean and the room service was friendly. When we first arrived at this hotel there was trouble, from our room not being available, (we got a free upgrade, but had to wait almost two hours!!!) to the shuttle service dropping us off and we had to walk back to the hotel!!!! When we arrived, we had prepaid for the stay in full. But obviously there was a miscommunication and our room was already gone !!! So we were upgraded to a suite. Then we went to go dine and the shuttle service dropped us off. They said they would be back in about 1.5 hours. We had to wait 3 hours. My brother actually started walking back to the hotel, but there were little children (ages 4-10; about 5 children) and I was not about to walk along a busy street with them when the shuttle service was supposed to pick us up. We called the hotel numerous times but we never got an answer. They finally showed up with not even an apology. We stayed a total of two nights, on the second floor. But every time we tried to get in our room, the key wouldn't work. We had to get keys remade on both nights!!! It was a tiring situation. The fact that we had...The customer service was horrible, from the room mixup, to the shuttle situation, and mostly with the key problems. The rooms were clean and the room service was friendly. When we first arrived at this hotel there was trouble, from our room not being available, (we got a free upgrade, but had to wait almost two hours!!!) to the shuttle service dropping us off and we had to walk back to the hotel!!!! When we arrived, we had prepaid for the stay in full. But obviously there was a miscommunication and our room was already gone !!! So we were upgraded to a suite. Then we went to go dine and the shuttle service dropped us off. They said they would be back in about 1.5 hours. We had to wait 3 hours. My brother actually started walking back to the hotel, but there were little children (ages 4-10; about 5 children) and I was not about to walk along a busy street with them when the shuttle service was supposed to pick us up. We called the hotel numerous times but we never got an answer. They finally showed up with not even an apology. We stayed a total of two nights, on the second floor. But every time we tried to get in our room, the key wouldn't work. We had to get keys remade on both nights!!! It was a tiring situation. The fact that we had just come from site seeing with children, all of us tired, and having to go back downstairs to get another key made!!! Overall would I stay there again?? Heck no, not after all that trouble we went through. The hot breakfast was good though, but there wasn't enough seating to accommodate people. I heard some griping about having to go back to their rooms to eat breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded August 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2013</t>
+  </si>
+  <si>
+    <t>The customer service was horrible, from the room mixup, to the shuttle situation, and mostly with the key problems. The rooms were clean and the room service was friendly. When we first arrived at this hotel there was trouble, from our room not being available, (we got a free upgrade, but had to wait almost two hours!!!) to the shuttle service dropping us off and we had to walk back to the hotel!!!! When we arrived, we had prepaid for the stay in full. But obviously there was a miscommunication and our room was already gone !!! So we were upgraded to a suite. Then we went to go dine and the shuttle service dropped us off. They said they would be back in about 1.5 hours. We had to wait 3 hours. My brother actually started walking back to the hotel, but there were little children (ages 4-10; about 5 children) and I was not about to walk along a busy street with them when the shuttle service was supposed to pick us up. We called the hotel numerous times but we never got an answer. They finally showed up with not even an apology. We stayed a total of two nights, on the second floor. But every time we tried to get in our room, the key wouldn't work. We had to get keys remade on both nights!!! It was a tiring situation. The fact that we had...The customer service was horrible, from the room mixup, to the shuttle situation, and mostly with the key problems. The rooms were clean and the room service was friendly. When we first arrived at this hotel there was trouble, from our room not being available, (we got a free upgrade, but had to wait almost two hours!!!) to the shuttle service dropping us off and we had to walk back to the hotel!!!! When we arrived, we had prepaid for the stay in full. But obviously there was a miscommunication and our room was already gone !!! So we were upgraded to a suite. Then we went to go dine and the shuttle service dropped us off. They said they would be back in about 1.5 hours. We had to wait 3 hours. My brother actually started walking back to the hotel, but there were little children (ages 4-10; about 5 children) and I was not about to walk along a busy street with them when the shuttle service was supposed to pick us up. We called the hotel numerous times but we never got an answer. They finally showed up with not even an apology. We stayed a total of two nights, on the second floor. But every time we tried to get in our room, the key wouldn't work. We had to get keys remade on both nights!!! It was a tiring situation. The fact that we had just come from site seeing with children, all of us tired, and having to go back downstairs to get another key made!!! Overall would I stay there again?? Heck no, not after all that trouble we went through. The hot breakfast was good though, but there wasn't enough seating to accommodate people. I heard some griping about having to go back to their rooms to eat breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r165824905-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>165824905</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Perfectly average hotel</t>
+  </si>
+  <si>
+    <t>I've stayed at several Staybridge Suites, my preferred hotel. My 7-year old son and I were on a weekend trip &amp; stayed here. Room was smaller than expected. TV is in suite area &amp; not viewable from the bed, huge detraction. Pool desperately needs cleaning, hot tub did not work and was disgusting. Breakfast was clean &amp; typical of the chain, though coffee kept running on short supply. Front desk staff was excellent, can't say enough good things about them. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at several Staybridge Suites, my preferred hotel. My 7-year old son and I were on a weekend trip &amp; stayed here. Room was smaller than expected. TV is in suite area &amp; not viewable from the bed, huge detraction. Pool desperately needs cleaning, hot tub did not work and was disgusting. Breakfast was clean &amp; typical of the chain, though coffee kept running on short supply. Front desk staff was excellent, can't say enough good things about them. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r162922642-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>162922642</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great Staff</t>
+  </si>
+  <si>
+    <t>I have been using the Staybridge Suites in Addison for over 8 months now for business meetings and also for personal needs. We were remodeling our house and stayed for a week. Additionally, I have several clients that stay here and all have great things to say about Staybridge. They are very responsive and the facility is well maintained.Wonderful breakfast all week long and warm cookies Tuesday through Thursday.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r161937240-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>161937240</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>This place is gross!</t>
+  </si>
+  <si>
+    <t>The bathrooms are grungy, the rooms have a weird smell, and I honestly don't think place could pass a black light test on any level. There is black scum or posdibly mold in the bathrooms. the AC is really loud when its running. The location is decent. They do allow pets. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded June 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2013</t>
+  </si>
+  <si>
+    <t>The bathrooms are grungy, the rooms have a weird smell, and I honestly don't think place could pass a black light test on any level. There is black scum or posdibly mold in the bathrooms. the AC is really loud when its running. The location is decent. They do allow pets. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r160937853-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>160937853</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>Like a Candlewood on Steroids!</t>
+  </si>
+  <si>
+    <t>I often stay at Candlewood properties so this was my first stay at a Staybridge. First thing I learned is they offer FREE fountain pop 24/7. For the soda drinkers out there this is a welcome inclusion in the amenities column! Also free breakfast every morning and they have evening food events as well during certain days of the week. The site has 2 buildings and I was in the 2nd on but it was easy to get in &amp; out of no matter where I was heading. Room was clean &amp; well kept, housekeeping each day was great even though they only do a "light" job. All in all thumbs up!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I often stay at Candlewood properties so this was my first stay at a Staybridge. First thing I learned is they offer FREE fountain pop 24/7. For the soda drinkers out there this is a welcome inclusion in the amenities column! Also free breakfast every morning and they have evening food events as well during certain days of the week. The site has 2 buildings and I was in the 2nd on but it was easy to get in &amp; out of no matter where I was heading. Room was clean &amp; well kept, housekeeping each day was great even though they only do a "light" job. All in all thumbs up!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r160221449-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>160221449</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Comfortable stay, great location</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights on business trip.  Hotel was comfortable, great beds.  Like the suite set-up, nice to have a fridge and microwave in the room.  There was also a WalMart right down the road for provisions which was very handy. The hotel does have a small pool and hot tub with a nice grilling area outdoors.  Another nice touch was the reception Tues-Thursday with appetizers and beer.  The best part was free fountain soda (pop to us from the north) in the lobby.  Morning breakfast buffet was included, had good variety, waffles, fresh fruit, eggs, pastries and bacon or sausage.  The staff was very nice and helpful with every request. The place could use a little updating of the details; carpet was frayed in several spots in the room, water spots on hallway ceiling and the trim on the lampshade in the bedroom area was hanging down.  Also the first morning the hair dryer decided it was time give up the ghost, but the staff found a replacement right away.  Would certainly stay here again for business or pleasure trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights on business trip.  Hotel was comfortable, great beds.  Like the suite set-up, nice to have a fridge and microwave in the room.  There was also a WalMart right down the road for provisions which was very handy. The hotel does have a small pool and hot tub with a nice grilling area outdoors.  Another nice touch was the reception Tues-Thursday with appetizers and beer.  The best part was free fountain soda (pop to us from the north) in the lobby.  Morning breakfast buffet was included, had good variety, waffles, fresh fruit, eggs, pastries and bacon or sausage.  The staff was very nice and helpful with every request. The place could use a little updating of the details; carpet was frayed in several spots in the room, water spots on hallway ceiling and the trim on the lampshade in the bedroom area was hanging down.  Also the first morning the hair dryer decided it was time give up the ghost, but the staff found a replacement right away.  Would certainly stay here again for business or pleasure trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r157878976-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>157878976</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Lovely place, lovely crew, amazing experience!</t>
+  </si>
+  <si>
+    <t>I went to Dallas to my best friend`s wedding and I loved the Hotel. The crew are so lovely, everybody is amazing! The best experience ever! Thanks everyone for each day that I spent in the Hotel! I have no words to thank you guys enough for everything. I wish I could remember all the names, but I`m terrible with it! But thanks all of you, for the delicious coffee, for the rides, for calling Leonard everytime we needed him for pick us up in somewhere! Hope to see all of you very soon!!!Your Brazilian Friend!</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r157593532-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>157593532</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>Not the best choice</t>
+  </si>
+  <si>
+    <t>As a long time business traveler, I was not impressed at all.There was a dead roach on the floor in the closet and the telephone worked about half the time.There are better options in the area for the same money.Unfortunately this is what can happen when the company books your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2013</t>
+  </si>
+  <si>
+    <t>As a long time business traveler, I was not impressed at all.There was a dead roach on the floor in the closet and the telephone worked about half the time.There are better options in the area for the same money.Unfortunately this is what can happen when the company books your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r156640267-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>156640267</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>This was my first time to stay at a Staybridge-Dallas location and it will not be my last. The employees in every department of the hotel were courteous and always spoke to me. My room was clean and had every accommodation of home. The location is close to the tollway. The breakfast had a good selection. Great experience!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r154089496-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>154089496</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We were very pleased with our stay!  My husband and I stayed here for 3 nights and I would like to compliment the Staybridge staff, as the greeting we received at check in was perfect... even outstanding!  The front desk check in crew responded quickly to the road weary travelers that we were after battling heavy traffic in Dallas and a long drive.  Their check in was fast and friendly. It was their mid week happy hour and they kindly served us refreshments!  I would like to thank Dana T. as she again helped us with refreshments in the lobby the next day when we were spending time with our friends.  And our room was great!  This is not a brand new facility, but it is being managed well.My only complaint is the elevator had a "funny" smell.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were very pleased with our stay!  My husband and I stayed here for 3 nights and I would like to compliment the Staybridge staff, as the greeting we received at check in was perfect... even outstanding!  The front desk check in crew responded quickly to the road weary travelers that we were after battling heavy traffic in Dallas and a long drive.  Their check in was fast and friendly. It was their mid week happy hour and they kindly served us refreshments!  I would like to thank Dana T. as she again helped us with refreshments in the lobby the next day when we were spending time with our friends.  And our room was great!  This is not a brand new facility, but it is being managed well.My only complaint is the elevator had a "funny" smell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r153939066-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>153939066</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel that Was Very Comfortable</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights and thoroughly enjoyed the staff and the hotel. The breakfasts were great and it was nice to have coffee in the lobby at all hours of the day for free. The hotel has an outside pool and hot tub and when we visited it was not warm enough to use the pool, but the hot tub was just perfect. Next to the pool area they have BBQ's to use too. Nice central location. We would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r152211439-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>152211439</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Stayed for 6 nights. Very convenient to everything we needed. Quiet area, ample parking, comfortable beds, clean room, nice breakfast choices. Friendly staff! Couldn't have asked for anything more.  Thanks! We will recommend this hotel to our friends who may be staying in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r147641553-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>147641553</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>Great place, Great price</t>
+  </si>
+  <si>
+    <t>Stayed for three days for a family function.  Check in and check out very easy.  Staff was wonderful and went above and beyond.  Even made restaurant reservations.  Room large, clean and everything worked.  Well maintained.  Breakfast was better than most with different hot food each day.  I would go back.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r147556630-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>147556630</t>
+  </si>
+  <si>
+    <t>12/16/2012</t>
+  </si>
+  <si>
+    <t>Great extended stay</t>
+  </si>
+  <si>
+    <t>Ive stayed here before and often on extended stays when I'm in Dallas for work. The rooms are comfortable, the service attentive and they offer full hot and cold breakfast daily. The wifi is complimentary to guests and three nights during the week they provide a lite dinner. The staff is also friendly and accommodating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r147523825-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>147523825</t>
+  </si>
+  <si>
+    <t>12/15/2012</t>
+  </si>
+  <si>
+    <t>Hotel will not honor confirmed rate...clogged drains</t>
+  </si>
+  <si>
+    <t>I made my reservation using our company travel agency. The confirmed daily rate was for $117.00 per night. However, the hotel charged me $126.00 per night. Speaking with the assistant manager, the printed confirmation number and rate is not valid. He refused to honor the confirmd $117 rate by making the adjustment at the time of check out. He instead offered to process a refund which would take 7 to 10 days. I'm a priority club member, platinum status and for the last five years all of the confirmed rates have been honored by the hotels I have stayed in. I'm on the road 80% each month...I have earned the platinum status. 
+In respect to the accommodations, the drain in the shower was clogged ...needless to say a major inconvenience. Within seconds I was angle deep in water in the shower. I had to rinse....turn off the water.....lather...wait for the water to drain...rinse...turn off the water...lather....repeat. There was only one remote control for two incompatible TVs. Some of the channels in one TV were not accessible on the other TV. The carpets are very very dirty. I never walk barefoot in a hotel. The whites socks were dark grey within an hour just walking around the room. Luckily, I carry extra socks with me for those hotels that dont wash the carpets regularly.
+The staff were courteous ....however, issue with the rate and the clogged drain in the shower is...I made my reservation using our company travel agency. The confirmed daily rate was for $117.00 per night. However, the hotel charged me $126.00 per night. Speaking with the assistant manager, the printed confirmation number and rate is not valid. He refused to honor the confirmd $117 rate by making the adjustment at the time of check out. He instead offered to process a refund which would take 7 to 10 days. I'm a priority club member, platinum status and for the last five years all of the confirmed rates have been honored by the hotels I have stayed in. I'm on the road 80% each month...I have earned the platinum status. In respect to the accommodations, the drain in the shower was clogged ...needless to say a major inconvenience. Within seconds I was angle deep in water in the shower. I had to rinse....turn off the water.....lather...wait for the water to drain...rinse...turn off the water...lather....repeat. There was only one remote control for two incompatible TVs. Some of the channels in one TV were not accessible on the other TV. The carpets are very very dirty. I never walk barefoot in a hotel. The whites socks were dark grey within an hour just walking around the room. Luckily, I carry extra socks with me for those hotels that dont wash the carpets regularly.The staff were courteous ....however, issue with the rate and the clogged drain in the shower is major turn off. Forunately there is a Candlewood Suites a few miles south. On my next business trip scheduled for next quarter, I will try that hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded January 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2013</t>
+  </si>
+  <si>
+    <t>I made my reservation using our company travel agency. The confirmed daily rate was for $117.00 per night. However, the hotel charged me $126.00 per night. Speaking with the assistant manager, the printed confirmation number and rate is not valid. He refused to honor the confirmd $117 rate by making the adjustment at the time of check out. He instead offered to process a refund which would take 7 to 10 days. I'm a priority club member, platinum status and for the last five years all of the confirmed rates have been honored by the hotels I have stayed in. I'm on the road 80% each month...I have earned the platinum status. 
+In respect to the accommodations, the drain in the shower was clogged ...needless to say a major inconvenience. Within seconds I was angle deep in water in the shower. I had to rinse....turn off the water.....lather...wait for the water to drain...rinse...turn off the water...lather....repeat. There was only one remote control for two incompatible TVs. Some of the channels in one TV were not accessible on the other TV. The carpets are very very dirty. I never walk barefoot in a hotel. The whites socks were dark grey within an hour just walking around the room. Luckily, I carry extra socks with me for those hotels that dont wash the carpets regularly.
+The staff were courteous ....however, issue with the rate and the clogged drain in the shower is...I made my reservation using our company travel agency. The confirmed daily rate was for $117.00 per night. However, the hotel charged me $126.00 per night. Speaking with the assistant manager, the printed confirmation number and rate is not valid. He refused to honor the confirmd $117 rate by making the adjustment at the time of check out. He instead offered to process a refund which would take 7 to 10 days. I'm a priority club member, platinum status and for the last five years all of the confirmed rates have been honored by the hotels I have stayed in. I'm on the road 80% each month...I have earned the platinum status. In respect to the accommodations, the drain in the shower was clogged ...needless to say a major inconvenience. Within seconds I was angle deep in water in the shower. I had to rinse....turn off the water.....lather...wait for the water to drain...rinse...turn off the water...lather....repeat. There was only one remote control for two incompatible TVs. Some of the channels in one TV were not accessible on the other TV. The carpets are very very dirty. I never walk barefoot in a hotel. The whites socks were dark grey within an hour just walking around the room. Luckily, I carry extra socks with me for those hotels that dont wash the carpets regularly.The staff were courteous ....however, issue with the rate and the clogged drain in the shower is major turn off. Forunately there is a Candlewood Suites a few miles south. On my next business trip scheduled for next quarter, I will try that hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r141361095-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>141361095</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Great stay - very comfortable - great staff!</t>
+  </si>
+  <si>
+    <t>I stayed here last week for a couple of days on business.  From the moment I walked in the door to checkin to the day I checked-out - everything was great!  The staff is so friendly and warm - willing to assist in any way.  The room was spacious, very clean and well-outfitted - I have everything I needed and more.  The breakfast is great as it has hot and cold items - something different daily and lots of options.  Being on the road so often, it is always appreciated when I have such a great experience.  Thank you Staybridge Suites Dallas Addison Team!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r140089785-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>140089785</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>kim,England</t>
+  </si>
+  <si>
+    <t>My daughter and I recently enjoyed a most pleasant stay at the Staybridge Suites, whilst visiting my husband , who is staying there longterm. Nothing was too much trouble for the friendly staff and everything in the hotel was of a good standard including cleanliness. The breakfasts were lovely with ample choice and the availability of a light supper 3 times a week , inclusive of beer or wine , was an added bonus. The shuttle service was invaluable as it enabled us to get out and about within a short radius of the hotel. Would not hesitate to stay there again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r139698456-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>139698456</t>
+  </si>
+  <si>
+    <t>09/07/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Currently - Front desk personnel were very accommodating.  Staybridge as usual will not let you down.  The pillows were comfortable.  Kitchen area was clean (as usual).  Utensils supplied were clean and newer.  Enjoy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r131159387-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131159387</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Perfect Place to Stay in Dallas</t>
+  </si>
+  <si>
+    <t>We came to Dallas for a doctors appointment. We were happy to find a full kitchen.  Staff was very friendly.  The room was clean and quiet.  We will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r130468759-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>130468759</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>Clean quiet well-run hotel</t>
+  </si>
+  <si>
+    <t>We had to visit an animal diagnostic clinic in Dallas and the staff there recommended this hotel as allowing pets that have appts with the clinic.  We have a large (well behaved and housebroken) dog and requested a 1st floor room near a back exit door.  We were given exactly what we asked and it was beyond convenient.  We were a little concerned at first that the room might have a smell of "animals have stayed here" aroma but the exact opposite was true.  It was extremely clean and nicely accomodated.  They even offer a not-quite-inhouse order to go menu with a strong focus on salads, pizza and pasta.  We had a piping hot pizza and 2 house salads (and cheesecake!) in our room within 45 minutes.We stayed at this hotel because of our dog but would absoluely return on our own-staff and accomodations were very great!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to visit an animal diagnostic clinic in Dallas and the staff there recommended this hotel as allowing pets that have appts with the clinic.  We have a large (well behaved and housebroken) dog and requested a 1st floor room near a back exit door.  We were given exactly what we asked and it was beyond convenient.  We were a little concerned at first that the room might have a smell of "animals have stayed here" aroma but the exact opposite was true.  It was extremely clean and nicely accomodated.  They even offer a not-quite-inhouse order to go menu with a strong focus on salads, pizza and pasta.  We had a piping hot pizza and 2 house salads (and cheesecake!) in our room within 45 minutes.We stayed at this hotel because of our dog but would absoluely return on our own-staff and accomodations were very great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r129729212-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>129729212</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>I stayed at the Staybridge Suites in Addison, Texas for a business trip in April 2012. I don't know why or how the other reviews are so great because this property is not the greatest and needs improvement. Upon checking in, I noticed that the office behind the front desk looked like a tornado had gone through it. Papers, books, etc all over the floor and desk. Upon getting to the room, I noticed that the deadbolt lock was broke in half. I did not think twice on the first night, but on day 2, I noticed that my white socks had turned black and I was wearing new shoes. Took a white washcloth and took a sample of the floor in 4 different places in both rooms that I had and the cloth turned black. (picture attached) Notified the front desk on the first day of a dog barking in the room across the hall. She attempted to contact the room, but no answer. Told me to call or come back later if it continued. The pool was filthy on the bottom and the spa was worse. The side entrance on the north side of the building looked like  the landscaping had not been taken care of in sometime and the door did not close on it's own leaving it open to anyone who wanted to come in. The property in general looked old and tired. As a Priority...I stayed at the Staybridge Suites in Addison, Texas for a business trip in April 2012. I don't know why or how the other reviews are so great because this property is not the greatest and needs improvement. Upon checking in, I noticed that the office behind the front desk looked like a tornado had gone through it. Papers, books, etc all over the floor and desk. Upon getting to the room, I noticed that the deadbolt lock was broke in half. I did not think twice on the first night, but on day 2, I noticed that my white socks had turned black and I was wearing new shoes. Took a white washcloth and took a sample of the floor in 4 different places in both rooms that I had and the cloth turned black. (picture attached) Notified the front desk on the first day of a dog barking in the room across the hall. She attempted to contact the room, but no answer. Told me to call or come back later if it continued. The pool was filthy on the bottom and the spa was worse. The side entrance on the north side of the building looked like  the landscaping had not been taken care of in sometime and the door did not close on it's own leaving it open to anyone who wanted to come in. The property in general looked old and tired. As a Priority Club Platinum member, I spend several nights per year in IHG hotels and this was not the best  Staybridge Suites that I have ever stayed in. Wrote to IHG, did the random survey that I was sent, and requested a call back. It took 3 1/2 weeks, but the general manager did call to apologize for the issues that I had during my stay. Hope that this property will improve in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded June 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at the Staybridge Suites in Addison, Texas for a business trip in April 2012. I don't know why or how the other reviews are so great because this property is not the greatest and needs improvement. Upon checking in, I noticed that the office behind the front desk looked like a tornado had gone through it. Papers, books, etc all over the floor and desk. Upon getting to the room, I noticed that the deadbolt lock was broke in half. I did not think twice on the first night, but on day 2, I noticed that my white socks had turned black and I was wearing new shoes. Took a white washcloth and took a sample of the floor in 4 different places in both rooms that I had and the cloth turned black. (picture attached) Notified the front desk on the first day of a dog barking in the room across the hall. She attempted to contact the room, but no answer. Told me to call or come back later if it continued. The pool was filthy on the bottom and the spa was worse. The side entrance on the north side of the building looked like  the landscaping had not been taken care of in sometime and the door did not close on it's own leaving it open to anyone who wanted to come in. The property in general looked old and tired. As a Priority...I stayed at the Staybridge Suites in Addison, Texas for a business trip in April 2012. I don't know why or how the other reviews are so great because this property is not the greatest and needs improvement. Upon checking in, I noticed that the office behind the front desk looked like a tornado had gone through it. Papers, books, etc all over the floor and desk. Upon getting to the room, I noticed that the deadbolt lock was broke in half. I did not think twice on the first night, but on day 2, I noticed that my white socks had turned black and I was wearing new shoes. Took a white washcloth and took a sample of the floor in 4 different places in both rooms that I had and the cloth turned black. (picture attached) Notified the front desk on the first day of a dog barking in the room across the hall. She attempted to contact the room, but no answer. Told me to call or come back later if it continued. The pool was filthy on the bottom and the spa was worse. The side entrance on the north side of the building looked like  the landscaping had not been taken care of in sometime and the door did not close on it's own leaving it open to anyone who wanted to come in. The property in general looked old and tired. As a Priority Club Platinum member, I spend several nights per year in IHG hotels and this was not the best  Staybridge Suites that I have ever stayed in. Wrote to IHG, did the random survey that I was sent, and requested a call back. It took 3 1/2 weeks, but the general manager did call to apologize for the issues that I had during my stay. Hope that this property will improve in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r127917805-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>127917805</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>Top Notch Service</t>
+  </si>
+  <si>
+    <t>We were extremely impressed with every aspect of our stay at the hotel.  The front desk stay checked us in promptly and was able to answer all of our questions.  The rooms were clean, comfortable, and bigger than we expected. The breakfast in the morning isn't just some coffee and roll.  There are waffles, eggs, yogurt, and much more!  We will definitely book a stay here again.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r126713477-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>126713477</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Great service, amazing hot breakfast, clean rooms, full kitchen, granite countertops, nice pool and spa, enjoyed our stay there, very close to the galleria and shopping.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r126518724-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>126518724</t>
+  </si>
+  <si>
+    <t>03/22/2012</t>
+  </si>
+  <si>
+    <t>Clean and friendly are only a few words to sum up Staybridge Suites Addison Dallas</t>
+  </si>
+  <si>
+    <t>We loved staying at the Staybridge Suites in Dallas Addison. The staff and maintenence were very friendly and they made us feel like we were right at home. They welcomed us in the doorway and said hello or gave us a sweet smile in the hallway.The rooms were clean and it felt like home. The location could'nt be any better. So close to all the shopping malls! We look forward to staying here the next time we stop in Dallas! Thanks for the best hotel experience for my family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r125426302-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>125426302</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>BEWARE</t>
+  </si>
+  <si>
+    <t>Rooms are nice, but the floors are thin, can hear stomping from above. Maids have no regard for personal belongings and will clearn the room as if you aren't returning, even if your checkout date is 3-4 days later.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r124386828-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>124386828</t>
+  </si>
+  <si>
+    <t>02/10/2012</t>
+  </si>
+  <si>
+    <t>My Stay at Staybridge</t>
+  </si>
+  <si>
+    <t>I stay at the Staybridge week after week.  My stays are excellent.  The rooms are always clean, the staff is always kind and generous, and the food and drinks at happy hour are served by the kindest lady one can meet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r122602858-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>122602858</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>My temporary home...</t>
+  </si>
+  <si>
+    <t>I resided at Staybridge Suites this past fall for about six weeks while I was looking for employment in Dallas.  Not having put much emphasis in where I stayed, I was looking for a place that was clean and felt safe.  Within the first 30 minutes of checking in, I met Sean Twedt, General Manager, and Dana Taylor, Director of Sales.  They were so professional and addressed any questions or concerns that I had.  In a short matter of time, I started to feel very comfortable there -- like it was my safe haven.  I had been through a lot of emotional stress prior to my stay, and this was the "retreat" that I needed to regroup.  The staff were very friendly and professional, the facilities were extremely clean, and the atmosphere was one of family.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I resided at Staybridge Suites this past fall for about six weeks while I was looking for employment in Dallas.  Not having put much emphasis in where I stayed, I was looking for a place that was clean and felt safe.  Within the first 30 minutes of checking in, I met Sean Twedt, General Manager, and Dana Taylor, Director of Sales.  They were so professional and addressed any questions or concerns that I had.  In a short matter of time, I started to feel very comfortable there -- like it was my safe haven.  I had been through a lot of emotional stress prior to my stay, and this was the "retreat" that I needed to regroup.  The staff were very friendly and professional, the facilities were extremely clean, and the atmosphere was one of family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r121419713-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>121419713</t>
+  </si>
+  <si>
+    <t>12/05/2011</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>I have been to many hotels but this one was by far the best service that I've ever received. The staff is polite, respectful and make you feel at home. They went out of there way to accomadates our needs. I will return again...</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r120594396-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>120594396</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Great place for one night or even a week!</t>
+  </si>
+  <si>
+    <t>Stayed one night only, wish we could have stayed more. Very clean, well appointed. Great location. The staff was great. Breakfast was more than just muffins and coffee. We will definitely be back for shopping trip or sports event soon. MoreShow less</t>
+  </si>
+  <si>
+    <t>seantwedt, General Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded November 18, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2011</t>
+  </si>
+  <si>
+    <t>Stayed one night only, wish we could have stayed more. Very clean, well appointed. Great location. The staff was great. Breakfast was more than just muffins and coffee. We will definitely be back for shopping trip or sports event soon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r120505038-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>120505038</t>
+  </si>
+  <si>
+    <t>11/12/2011</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Excellent Location, very friendly and cheerfull staff and a well managed Hotel with comfy rooms &amp; bedsThe Hotel &amp; the rooms  are always clean &amp; fresh and it shows the management cares about the appearance and their guests. The Hotel serves full breakfast every morning omlettes, sausages, muffins fresh fruits, yoghurt, milk etc..... They also serve a delicious  buffet dinner Tue - Thr with beer &amp; wine on the house.  We stayed for more than 2 months since 7th Sep and we feel it is our second home. We highly recommend this highly personalized Hotel to anyone. Ashok Malkani &amp; familyMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Excellent Location, very friendly and cheerfull staff and a well managed Hotel with comfy rooms &amp; bedsThe Hotel &amp; the rooms  are always clean &amp; fresh and it shows the management cares about the appearance and their guests. The Hotel serves full breakfast every morning omlettes, sausages, muffins fresh fruits, yoghurt, milk etc..... They also serve a delicious  buffet dinner Tue - Thr with beer &amp; wine on the house.  We stayed for more than 2 months since 7th Sep and we feel it is our second home. We highly recommend this highly personalized Hotel to anyone. Ashok Malkani &amp; familyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r118503747-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>118503747</t>
+  </si>
+  <si>
+    <t>09/23/2011</t>
+  </si>
+  <si>
+    <t>Great for Extended Stay!</t>
+  </si>
+  <si>
+    <t>After extensive research and inspections of Dallas area Extended Stay hotels, I chose this one and couldn’t have been more satisfied! The rooms are all updated with granite countertops in the Bathrooms, Flat Screens w/ premium cable,  mini Kitchenettes etc..You get complimentary Golds Gym privileges, Hot Breakfast each morning and Dinner in the evening and some nights Happy Hour w/ Wine and Beer. Washer and Dryer are also complimentary. The location is perfect with easy access off the Toll Road and its quiet. You can walk across the street to a few restaurants including Uncle Julio’s for great Tex Mex. Housekeeping did a great Job and the entire staff treats you like family. The guests are mostly Pilots for training at the Addison Airport so its preofessional.   I am so happy that picked this hotel for my 2 month stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>After extensive research and inspections of Dallas area Extended Stay hotels, I chose this one and couldn’t have been more satisfied! The rooms are all updated with granite countertops in the Bathrooms, Flat Screens w/ premium cable,  mini Kitchenettes etc..You get complimentary Golds Gym privileges, Hot Breakfast each morning and Dinner in the evening and some nights Happy Hour w/ Wine and Beer. Washer and Dryer are also complimentary. The location is perfect with easy access off the Toll Road and its quiet. You can walk across the street to a few restaurants including Uncle Julio’s for great Tex Mex. Housekeeping did a great Job and the entire staff treats you like family. The guests are mostly Pilots for training at the Addison Airport so its preofessional.   I am so happy that picked this hotel for my 2 month stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r117810194-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>117810194</t>
+  </si>
+  <si>
+    <t>09/07/2011</t>
+  </si>
+  <si>
+    <t>Your home away from home!</t>
+  </si>
+  <si>
+    <t>Let me tell you about Staybridge Suites Dallas-Addison. Being displaced from my home due to a vehicle driving through the bathroom wall, I found Staybridge right up the road. I began my stay at the end of May and stayed until the repairs were completed the first of September. Life at Staybridge is better than being at home. The entire staff at Staybridge are exceptional! They all make you feel at home. And, the various extended-stay tenants are so much fun to socialize with during the breakfasts and Sundowners. I made some friends whom I know I will keep in contact with for years. If you're looking for a warm, personable place to stay in North Dallas where you will feel welcome, you must choose Staybridge Suites Dallas-Addison!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Let me tell you about Staybridge Suites Dallas-Addison. Being displaced from my home due to a vehicle driving through the bathroom wall, I found Staybridge right up the road. I began my stay at the end of May and stayed until the repairs were completed the first of September. Life at Staybridge is better than being at home. The entire staff at Staybridge are exceptional! They all make you feel at home. And, the various extended-stay tenants are so much fun to socialize with during the breakfasts and Sundowners. I made some friends whom I know I will keep in contact with for years. If you're looking for a warm, personable place to stay in North Dallas where you will feel welcome, you must choose Staybridge Suites Dallas-Addison!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r115325530-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>115325530</t>
+  </si>
+  <si>
+    <t>07/13/2011</t>
+  </si>
+  <si>
+    <t>Great extended stay and good service</t>
+  </si>
+  <si>
+    <t>I have stayed here for over 3 months now after starting a new job in Addison,TX. I love it!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>seantwedt, General Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded July 14, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2011</t>
+  </si>
+  <si>
+    <t>I have stayed here for over 3 months now after starting a new job in Addison,TX. I love it!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r94274585-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>94274585</t>
+  </si>
+  <si>
+    <t>01/24/2011</t>
+  </si>
+  <si>
+    <t>Great Value for a suite hotel; very friendly atmosphere; would book again</t>
+  </si>
+  <si>
+    <t>Excellent location for quick access anywhere.  In a great neighbourhood (affluent Addison).  Hotel was clean and felt like 'home'.  Very friendly staff.  Check out their sense of humour on their YouTube video.  The hot breakfast was a huge plus.  It was a delicious full buffet breakfast, not just a continental type one.  Comfortable rooms, great price for a suite that has a kitchen.  Comfortable beds, slept well.  Closest Hotel to Mary Kay's World Headquarters.  Galleria is just a 10 min drive away.  Outlet shopping at Allen, Tx is just a 20-30 min drive away.  International airport is also a 30 min drive.  Downtown: 20 mins away.   A few minutes drive from the heart of the Addison restaurant strip.  Everything you need.  Free internet and free parking.  Would definitely stay there again.  We did not use the small outdoor pool as it was only in the 20's F when we were there.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>Excellent location for quick access anywhere.  In a great neighbourhood (affluent Addison).  Hotel was clean and felt like 'home'.  Very friendly staff.  Check out their sense of humour on their YouTube video.  The hot breakfast was a huge plus.  It was a delicious full buffet breakfast, not just a continental type one.  Comfortable rooms, great price for a suite that has a kitchen.  Comfortable beds, slept well.  Closest Hotel to Mary Kay's World Headquarters.  Galleria is just a 10 min drive away.  Outlet shopping at Allen, Tx is just a 20-30 min drive away.  International airport is also a 30 min drive.  Downtown: 20 mins away.   A few minutes drive from the heart of the Addison restaurant strip.  Everything you need.  Free internet and free parking.  Would definitely stay there again.  We did not use the small outdoor pool as it was only in the 20's F when we were there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r92146008-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>92146008</t>
+  </si>
+  <si>
+    <t>01/07/2011</t>
+  </si>
+  <si>
+    <t>Very pleased.  Would definitely book with them again.</t>
+  </si>
+  <si>
+    <t>We were visiting Dallas for only a few days and wanted a suite that had a kitchen as we had small children.  The location was great as it was close to the Galleria Mall.  It also is close to other shopping and restaurants.  The room was clean and had all the amenities we needed.  The morning hot breakfast had everything you could ask for.  Price was very good as well.  Definitely will book ourselves again next time we come to Dallas.  The only thing they didn't have was a crib for our toddler, but we brought our own pack and play.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r86785230-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>86785230</t>
+  </si>
+  <si>
+    <t>11/11/2010</t>
+  </si>
+  <si>
+    <t>Excellent Service - Awesome Value!</t>
+  </si>
+  <si>
+    <t>A few friends and I were looking for a place to stay for just one night while visiting Dallas for a concert.   Staybridge was one of the only places we could find that had a true 2 bedroom suite for such a great price.   The suite was perfect for three people, and the hotel was very well managed.   The free morning breakfast was awesome and we loved chatting with the super friendly food attendant.   The gentleman at the front desk (manager?) was very helpful and made us feel welcome.   I have stayed at the Staybridge chain in a few cities now because of the value &amp; professionalism of their operations, and I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>A few friends and I were looking for a place to stay for just one night while visiting Dallas for a concert.   Staybridge was one of the only places we could find that had a true 2 bedroom suite for such a great price.   The suite was perfect for three people, and the hotel was very well managed.   The free morning breakfast was awesome and we loved chatting with the super friendly food attendant.   The gentleman at the front desk (manager?) was very helpful and made us feel welcome.   I have stayed at the Staybridge chain in a few cities now because of the value &amp; professionalism of their operations, and I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r70394840-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>70394840</t>
+  </si>
+  <si>
+    <t>07/10/2010</t>
+  </si>
+  <si>
+    <t>Really?  Second time this month tripadvisor reviews miss the mark...</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night and it was one night too many.  First, they simply did not have the king size suite we reserved.  Already booked--too bad.  Bait and switch?  Staff did the best they could to give us a decent alternative.  Sadly, though, the air conditioning in the smaller room did not work .  The next room, also smaller, had a major leak in the ceiling of the bathroom.  By then, we decided to just put down some towels and hope for the best so we could get on with our evening.  We were told that the management would call us to see how to make things right.  We never heard a word.  On checking out the next day, we continued to request some kind of compensation so the desk operator deducted $20 from the bill.Don't stay here--there are too many other options.Following years of good leads from tripadvisor reviews, this is the second BIG miss in one month.  How disappointing!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>DallasAddisonSuites, General Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded August 27, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2010</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night and it was one night too many.  First, they simply did not have the king size suite we reserved.  Already booked--too bad.  Bait and switch?  Staff did the best they could to give us a decent alternative.  Sadly, though, the air conditioning in the smaller room did not work .  The next room, also smaller, had a major leak in the ceiling of the bathroom.  By then, we decided to just put down some towels and hope for the best so we could get on with our evening.  We were told that the management would call us to see how to make things right.  We never heard a word.  On checking out the next day, we continued to request some kind of compensation so the desk operator deducted $20 from the bill.Don't stay here--there are too many other options.Following years of good leads from tripadvisor reviews, this is the second BIG miss in one month.  How disappointing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r63797690-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>63797690</t>
+  </si>
+  <si>
+    <t>05/10/2010</t>
+  </si>
+  <si>
+    <t>Best Hotel in  Dallas for Buisness meeting/Travel/Stay</t>
+  </si>
+  <si>
+    <t>I visited the place in July 2008, The premier choice for extended stay hotel reservations in the Addison Texas area of the North Dallas Metroplex is  the one and only "Staybridge Suites Addison Hotel...The Staybridge Suites Addison Hotel is centrally located at Dallas Parkway and Keller Springs Road in the heart of corporate America with nearby corporate headquarters for ATT, Metro PCSI enjoyed  fabulous North Dallas shopping at the Galleria Dallas, Valley View Mall and Shops at Willow Bend. Golf is plentiful with nearby courses such as Bear Creek, Chase Oaks and Indian Creek to name a few. its my recommendation for Both business travelers and those vacationing in the North Dallas Addison area will find their comfortable extended stay hotel accommodations perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>I visited the place in July 2008, The premier choice for extended stay hotel reservations in the Addison Texas area of the North Dallas Metroplex is  the one and only "Staybridge Suites Addison Hotel...The Staybridge Suites Addison Hotel is centrally located at Dallas Parkway and Keller Springs Road in the heart of corporate America with nearby corporate headquarters for ATT, Metro PCSI enjoyed  fabulous North Dallas shopping at the Galleria Dallas, Valley View Mall and Shops at Willow Bend. Golf is plentiful with nearby courses such as Bear Creek, Chase Oaks and Indian Creek to name a few. its my recommendation for Both business travelers and those vacationing in the North Dallas Addison area will find their comfortable extended stay hotel accommodations perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r63378163-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>63378163</t>
+  </si>
+  <si>
+    <t>05/05/2010</t>
+  </si>
+  <si>
+    <t>Amazing Experience</t>
+  </si>
+  <si>
+    <t>It was excellent experience always with staybridge suites. I have stayed in various. This one is one of them. The staff is amazing, facilities are marvellous and its always value for money.Thanks for making stay the best.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r47337404-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>47337404</t>
+  </si>
+  <si>
+    <t>10/20/2009</t>
+  </si>
+  <si>
+    <t>Nice spot to spend a night.</t>
+  </si>
+  <si>
+    <t>I stayed here the night before the cutthroat UT/OU game, and it was pretty good. Check-in was easy, the room and beds were comfy, the shower was ok, and the breakfast was good enough. I found this hotel when there wasn't anything else, and I feel good about it. Great place to stay in Dallas.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r45674382-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>45674382</t>
+  </si>
+  <si>
+    <t>10/02/2009</t>
+  </si>
+  <si>
+    <t>Would stay at Staybridge Suites Addison again in a heartbeat!</t>
+  </si>
+  <si>
+    <t>Best hotel stay I’ve ever had, especially for the money
+I cannot say enough positive things about the stay I had at the Staybridge Suites in Addison (Dallas). The staff were all very friendly and extremely helpful; the continental breakfast was one of the biggest and best that I have ever seen to be included in the cost of a hotel stay; the room was really big and accommodating for me (I’m 6’-6" tall and like big areas, and having a separate kitchen, resting area, sleeping area, and closet were great for me); and security was pretty decent for the area, too. The location is excellent - it’s in a safe part of town that is fairly centrally located to anything you need to go to. The only weird part is that there is a toll booth about 500 yards from the hotel, so if you go that way on the highway and come back you have to pay something like $1 to go through the gate and then turn immediately into the hotel parking lot! The deal I got through Expedia was awesome. Having this hotel stay was icing on the cake (even if the Dallas Cowboys did lose their game, I had a great time staying here!).
+Traveler's tip on saving a few bucks
+Plan your route to stay away from the toll road as best you can, and be SURE to bring a GPS. The Dallas traffic...Best hotel stay I’ve ever had, especially for the moneyI cannot say enough positive things about the stay I had at the Staybridge Suites in Addison (Dallas). The staff were all very friendly and extremely helpful; the continental breakfast was one of the biggest and best that I have ever seen to be included in the cost of a hotel stay; the room was really big and accommodating for me (I’m 6’-6" tall and like big areas, and having a separate kitchen, resting area, sleeping area, and closet were great for me); and security was pretty decent for the area, too. The location is excellent - it’s in a safe part of town that is fairly centrally located to anything you need to go to. The only weird part is that there is a toll booth about 500 yards from the hotel, so if you go that way on the highway and come back you have to pay something like $1 to go through the gate and then turn immediately into the hotel parking lot! The deal I got through Expedia was awesome. Having this hotel stay was icing on the cake (even if the Dallas Cowboys did lose their game, I had a great time staying here!).Traveler's tip on saving a few bucksPlan your route to stay away from the toll road as best you can, and be SURE to bring a GPS. The Dallas traffic is FAST, and if you don’t know where you are going, you will get lost in a big hurry!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>Best hotel stay I’ve ever had, especially for the money
+I cannot say enough positive things about the stay I had at the Staybridge Suites in Addison (Dallas). The staff were all very friendly and extremely helpful; the continental breakfast was one of the biggest and best that I have ever seen to be included in the cost of a hotel stay; the room was really big and accommodating for me (I’m 6’-6" tall and like big areas, and having a separate kitchen, resting area, sleeping area, and closet were great for me); and security was pretty decent for the area, too. The location is excellent - it’s in a safe part of town that is fairly centrally located to anything you need to go to. The only weird part is that there is a toll booth about 500 yards from the hotel, so if you go that way on the highway and come back you have to pay something like $1 to go through the gate and then turn immediately into the hotel parking lot! The deal I got through Expedia was awesome. Having this hotel stay was icing on the cake (even if the Dallas Cowboys did lose their game, I had a great time staying here!).
+Traveler's tip on saving a few bucks
+Plan your route to stay away from the toll road as best you can, and be SURE to bring a GPS. The Dallas traffic...Best hotel stay I’ve ever had, especially for the moneyI cannot say enough positive things about the stay I had at the Staybridge Suites in Addison (Dallas). The staff were all very friendly and extremely helpful; the continental breakfast was one of the biggest and best that I have ever seen to be included in the cost of a hotel stay; the room was really big and accommodating for me (I’m 6’-6" tall and like big areas, and having a separate kitchen, resting area, sleeping area, and closet were great for me); and security was pretty decent for the area, too. The location is excellent - it’s in a safe part of town that is fairly centrally located to anything you need to go to. The only weird part is that there is a toll booth about 500 yards from the hotel, so if you go that way on the highway and come back you have to pay something like $1 to go through the gate and then turn immediately into the hotel parking lot! The deal I got through Expedia was awesome. Having this hotel stay was icing on the cake (even if the Dallas Cowboys did lose their game, I had a great time staying here!).Traveler's tip on saving a few bucksPlan your route to stay away from the toll road as best you can, and be SURE to bring a GPS. The Dallas traffic is FAST, and if you don’t know where you are going, you will get lost in a big hurry!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r33615163-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>33615163</t>
+  </si>
+  <si>
+    <t>06/30/2009</t>
+  </si>
+  <si>
+    <t>Amazing value and service!</t>
+  </si>
+  <si>
+    <t>My husband and I attended a wedding at the Prestonwood Country Club and decided to stay at this hotel instead of driving back home that evening.Upon check-in, we inquired about the breakfast hours (breakfast is included) and found we would be leaving too early as we had a flight out of DFW at 0700 the next morning.  The clerk asked if we'd like a 'to-go' breakfast and we accepted.Upon check-in, we found the room to be spacious, well-appointed and clean.  The kitchenette included a microwave, sink, stove, dishwasher, refrigerator and coffee maker.  Very handy if you're staying more than one evening.Upon inquiring about their 'free shuttle', we were advised it only operates on weekdays; however they had an out-of-town hotel employee staying there who volunteered to drive us to the wedding!  Great service!When we checked out in the morning, the clerk (a different one) asked if we were the ones needing the breakfast to go and produced a bag with 2 cartons of milk, fruit, bagels and sweet breads....how nice was that?Good value $69 plus tax, booked on their website, and a pretty good location if you're up in that part of town!  Nearby food includes Subway, Uncle Julio's and a few more if you're able to drive to them.Based on this visit, we'd definitely stay at another property in this chain!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>My husband and I attended a wedding at the Prestonwood Country Club and decided to stay at this hotel instead of driving back home that evening.Upon check-in, we inquired about the breakfast hours (breakfast is included) and found we would be leaving too early as we had a flight out of DFW at 0700 the next morning.  The clerk asked if we'd like a 'to-go' breakfast and we accepted.Upon check-in, we found the room to be spacious, well-appointed and clean.  The kitchenette included a microwave, sink, stove, dishwasher, refrigerator and coffee maker.  Very handy if you're staying more than one evening.Upon inquiring about their 'free shuttle', we were advised it only operates on weekdays; however they had an out-of-town hotel employee staying there who volunteered to drive us to the wedding!  Great service!When we checked out in the morning, the clerk (a different one) asked if we were the ones needing the breakfast to go and produced a bag with 2 cartons of milk, fruit, bagels and sweet breads....how nice was that?Good value $69 plus tax, booked on their website, and a pretty good location if you're up in that part of town!  Nearby food includes Subway, Uncle Julio's and a few more if you're able to drive to them.Based on this visit, we'd definitely stay at another property in this chain!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r22623575-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>22623575</t>
+  </si>
+  <si>
+    <t>12/10/2008</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>My teenage daughter and I stayed for 4 nights at this well located hotel. We stayed before at Staybridge suites in Houston and San Antonio and this was very similar. It's very nice to have breakfast in the morning and to be able to take it to your room. This particular hotel does not have a table or similar to sit down and eat, we have to do it at the sofa with the coffee tables, which was a little bit uncomfortable. We experienced some troubles with our door lock but were immediately transfered to another room which was fine, and the staff was very very courteous and helpful. Close by is a Walmart so you can fill your fridge and prepare dinner. We definitely stay again in any Staybridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>My teenage daughter and I stayed for 4 nights at this well located hotel. We stayed before at Staybridge suites in Houston and San Antonio and this was very similar. It's very nice to have breakfast in the morning and to be able to take it to your room. This particular hotel does not have a table or similar to sit down and eat, we have to do it at the sofa with the coffee tables, which was a little bit uncomfortable. We experienced some troubles with our door lock but were immediately transfered to another room which was fine, and the staff was very very courteous and helpful. Close by is a Walmart so you can fill your fridge and prepare dinner. We definitely stay again in any Staybridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r22015440-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>22015440</t>
+  </si>
+  <si>
+    <t>11/19/2008</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>Its a half step up from ameristay. I give it 2.5 star max because it had a pretty good breakfast. The site is misleading because they dont have flat screen tv. Spa is outdoors. The gym consists of a few treadmills. I paid in the $40s for it before tax on priceline.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r21655137-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>21655137</t>
+  </si>
+  <si>
+    <t>11/08/2008</t>
+  </si>
+  <si>
+    <t>Great Value and very safe</t>
+  </si>
+  <si>
+    <t>I love the Staybridge Suites brand its like staying in an apartment but someone else takes care of everything. This property lives up to the brand. Clean, free internet and a decent breakfast to kick off the day. I needed to evacuate 4 team members during Huricane Ike this is the place that I booked them. They were also quite happy with it.</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r14938562-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>14938562</t>
+  </si>
+  <si>
+    <t>04/10/2008</t>
+  </si>
+  <si>
+    <t>Amazing Value</t>
+  </si>
+  <si>
+    <t>I very much enjoyed my stay. My room was clean and the kitchen was ready for use with utensils, plates, glasses and cooking supplies already there. Although they said there was no maid service during the weekend, my room was cleaned. I was on the first floor right next to the lobby and the room was still very quiet. The air conditioner was so noisy though that I did need to turn it off to be able to sleep.  I was plenty cool with it off, so it was not an issue.  The separate sitting area was great for visiting with my friends.  My only complaint is that although I had reserved a crib, I did not have one when I arrived. There are only 2 cribs for this very large hotel so, be sure you reconfirm your crib before you arrive.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>I very much enjoyed my stay. My room was clean and the kitchen was ready for use with utensils, plates, glasses and cooking supplies already there. Although they said there was no maid service during the weekend, my room was cleaned. I was on the first floor right next to the lobby and the room was still very quiet. The air conditioner was so noisy though that I did need to turn it off to be able to sleep.  I was plenty cool with it off, so it was not an issue.  The separate sitting area was great for visiting with my friends.  My only complaint is that although I had reserved a crib, I did not have one when I arrived. There are only 2 cribs for this very large hotel so, be sure you reconfirm your crib before you arrive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r6017241-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>6017241</t>
+  </si>
+  <si>
+    <t>10/26/2006</t>
+  </si>
+  <si>
+    <t>Great Experience !!! Comfort, service and value for money!!!</t>
+  </si>
+  <si>
+    <t>I've recently spent a number of weeks staying at this hotel, on my transitional move to the USA. We stayed in the largest suite, and was fortunate to be at the end of the last building, it was almost like a home from home. My husband and I stayed there for 2-3 weeks at a time on 3 occasions, while we transitioned.
+The hotel is very clean and has everything you need, the rooms are fully equipped with tv (with cable) fridge freezer (with ice maker) microwave, hob and a full range of crockery and utensils. The larger suites have separate bedrooms to the living areas which is great if one of you wants to go to bed and the other wants to stay up watching movies.
+Everything is very local, there is a petrol station over the road, that sells all of your basics, incl Subway! 2 bar and grills in the same area. Walmart is a short drive (10 minute walk up the road), and there is a fab all you can eat chinese buffet on the way for $7.95 per head.
+the hotel provides a complimentary continental breakfast, which although small is more than adequate, you have a selelction of muffins, bagels, egg/sausage (needs to be warmed in microwave) fresh fruit and pastries, coffee is available in receiption 24 hours a day.
+The hotel has its own laundry (great for those longer stays), small gym (basic equipment),...I've recently spent a number of weeks staying at this hotel, on my transitional move to the USA. We stayed in the largest suite, and was fortunate to be at the end of the last building, it was almost like a home from home. My husband and I stayed there for 2-3 weeks at a time on 3 occasions, while we transitioned.The hotel is very clean and has everything you need, the rooms are fully equipped with tv (with cable) fridge freezer (with ice maker) microwave, hob and a full range of crockery and utensils. The larger suites have separate bedrooms to the living areas which is great if one of you wants to go to bed and the other wants to stay up watching movies.Everything is very local, there is a petrol station over the road, that sells all of your basics, incl Subway! 2 bar and grills in the same area. Walmart is a short drive (10 minute walk up the road), and there is a fab all you can eat chinese buffet on the way for $7.95 per head.the hotel provides a complimentary continental breakfast, which although small is more than adequate, you have a selelction of muffins, bagels, egg/sausage (needs to be warmed in microwave) fresh fruit and pastries, coffee is available in receiption 24 hours a day.The hotel has its own laundry (great for those longer stays), small gym (basic equipment), and a pool and spa (great for the Texas Summer).We were so impressed by this hotel that we have made this our corporate hotel (our office is just across the car park), and have recently had directors and managers staying there, and they have been more than happy with the service.The staff are friendly and very helpfull, even when you get a few problems (which inevitably you will if you stay there as long as we did). The building is secure, with key card access to get in the main building, and then into the rooms.The hotel will be undergoing a refurbishment shortly, and I'm sure this will just enhance an already great establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>I've recently spent a number of weeks staying at this hotel, on my transitional move to the USA. We stayed in the largest suite, and was fortunate to be at the end of the last building, it was almost like a home from home. My husband and I stayed there for 2-3 weeks at a time on 3 occasions, while we transitioned.
+The hotel is very clean and has everything you need, the rooms are fully equipped with tv (with cable) fridge freezer (with ice maker) microwave, hob and a full range of crockery and utensils. The larger suites have separate bedrooms to the living areas which is great if one of you wants to go to bed and the other wants to stay up watching movies.
+Everything is very local, there is a petrol station over the road, that sells all of your basics, incl Subway! 2 bar and grills in the same area. Walmart is a short drive (10 minute walk up the road), and there is a fab all you can eat chinese buffet on the way for $7.95 per head.
+the hotel provides a complimentary continental breakfast, which although small is more than adequate, you have a selelction of muffins, bagels, egg/sausage (needs to be warmed in microwave) fresh fruit and pastries, coffee is available in receiption 24 hours a day.
+The hotel has its own laundry (great for those longer stays), small gym (basic equipment),...I've recently spent a number of weeks staying at this hotel, on my transitional move to the USA. We stayed in the largest suite, and was fortunate to be at the end of the last building, it was almost like a home from home. My husband and I stayed there for 2-3 weeks at a time on 3 occasions, while we transitioned.The hotel is very clean and has everything you need, the rooms are fully equipped with tv (with cable) fridge freezer (with ice maker) microwave, hob and a full range of crockery and utensils. The larger suites have separate bedrooms to the living areas which is great if one of you wants to go to bed and the other wants to stay up watching movies.Everything is very local, there is a petrol station over the road, that sells all of your basics, incl Subway! 2 bar and grills in the same area. Walmart is a short drive (10 minute walk up the road), and there is a fab all you can eat chinese buffet on the way for $7.95 per head.the hotel provides a complimentary continental breakfast, which although small is more than adequate, you have a selelction of muffins, bagels, egg/sausage (needs to be warmed in microwave) fresh fruit and pastries, coffee is available in receiption 24 hours a day.The hotel has its own laundry (great for those longer stays), small gym (basic equipment), and a pool and spa (great for the Texas Summer).We were so impressed by this hotel that we have made this our corporate hotel (our office is just across the car park), and have recently had directors and managers staying there, and they have been more than happy with the service.The staff are friendly and very helpfull, even when you get a few problems (which inevitably you will if you stay there as long as we did). The building is secure, with key card access to get in the main building, and then into the rooms.The hotel will be undergoing a refurbishment shortly, and I'm sure this will just enhance an already great establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r5790170-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>5790170</t>
+  </si>
+  <si>
+    <t>09/10/2006</t>
+  </si>
+  <si>
+    <t>Car broken into and nobody cares</t>
+  </si>
+  <si>
+    <t>My car was broken into and I had some things stolen.  I know I shouldn't leave things in my car, and yes there were signs posted but sometimes people forget after a long day.  When speaking with the police I learned that this was NOT the first time this had happend.  The officer dusting for fingerprints said to me, "yeah, this definitly isn't the first time I've seen this parking lot."  The signs posted tell you not to leave valuables in your car but all this does is waive any liability and tell criminals that there aren't any security cameras.  After multiple break ins, I would expect the hotel to take care of their customers, but the staff was pretty apathetic about the situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>HBDaniel, Manager at Staybridge Suites Dallas - Addison, responded to this reviewResponded July 10, 2008</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2008</t>
+  </si>
+  <si>
+    <t>My car was broken into and I had some things stolen.  I know I shouldn't leave things in my car, and yes there were signs posted but sometimes people forget after a long day.  When speaking with the police I learned that this was NOT the first time this had happend.  The officer dusting for fingerprints said to me, "yeah, this definitly isn't the first time I've seen this parking lot."  The signs posted tell you not to leave valuables in your car but all this does is waive any liability and tell criminals that there aren't any security cameras.  After multiple break ins, I would expect the hotel to take care of their customers, but the staff was pretty apathetic about the situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r4775300-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>4775300</t>
+  </si>
+  <si>
+    <t>03/29/2006</t>
+  </si>
+  <si>
+    <t>Loved the Bradford</t>
+  </si>
+  <si>
+    <t>This hotel is well worth the $$$. The free breakfast in the morning was great, the room was clean, the staff was nice, and the location was good. Me and my family enjoyed our staff very much. This is a great hotel if you have children, if you are staying more than two nights, in town on business, or an older couple. I would stay again in a minute.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r4039811-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>4039811</t>
+  </si>
+  <si>
+    <t>10/19/2005</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I was there for a conference at the convention center. The suite was comfortable and clean. The staff was courteous, especially the shuttle driver. I stayed there for $80.00 per night , which was far less than any other downtown hotel. The only thing wrong was the lack of restaurants nearby.</t>
+  </si>
+  <si>
+    <t>November 2004</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r2781426-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>2781426</t>
+  </si>
+  <si>
+    <t>10/22/2004</t>
+  </si>
+  <si>
+    <t>Tripadvisor from Austin</t>
+  </si>
+  <si>
+    <t>This was a great hotel in a great location. Not only is it clean and nice looking, it was also only a walk away from watching the Mavericks play at the American Airlines stadium. I'd definitely book at this hotel again when visiting Dallas.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2506,6039 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>162</v>
+      </c>
+      <c r="X20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>170</v>
+      </c>
+      <c r="X21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>200</v>
+      </c>
+      <c r="X26" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>208</v>
+      </c>
+      <c r="X27" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>224</v>
+      </c>
+      <c r="X29" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>229</v>
+      </c>
+      <c r="K30" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>245</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>246</v>
+      </c>
+      <c r="X32" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>245</v>
+      </c>
+      <c r="O34" t="s">
+        <v>108</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>260</v>
+      </c>
+      <c r="X34" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" t="s">
+        <v>265</v>
+      </c>
+      <c r="K35" t="s">
+        <v>266</v>
+      </c>
+      <c r="L35" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>268</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" t="s">
+        <v>274</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>276</v>
+      </c>
+      <c r="J37" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>280</v>
+      </c>
+      <c r="X37" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38" t="s">
+        <v>285</v>
+      </c>
+      <c r="K38" t="s">
+        <v>286</v>
+      </c>
+      <c r="L38" t="s">
+        <v>287</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>288</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>295</v>
+      </c>
+      <c r="X39" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" t="s">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s">
+        <v>309</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>303</v>
+      </c>
+      <c r="O41" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>310</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>311</v>
+      </c>
+      <c r="J42" t="s">
+        <v>312</v>
+      </c>
+      <c r="K42" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" t="s">
+        <v>314</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>303</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>315</v>
+      </c>
+      <c r="X42" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>303</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" t="s">
+        <v>326</v>
+      </c>
+      <c r="L44" t="s">
+        <v>327</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>329</v>
+      </c>
+      <c r="X44" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="s">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" t="s">
+        <v>336</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>337</v>
+      </c>
+      <c r="X45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>345</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>347</v>
+      </c>
+      <c r="J47" t="s">
+        <v>348</v>
+      </c>
+      <c r="K47" t="s">
+        <v>349</v>
+      </c>
+      <c r="L47" t="s">
+        <v>350</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>351</v>
+      </c>
+      <c r="X47" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>355</v>
+      </c>
+      <c r="J48" t="s">
+        <v>356</v>
+      </c>
+      <c r="K48" t="s">
+        <v>357</v>
+      </c>
+      <c r="L48" t="s">
+        <v>358</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>359</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>362</v>
+      </c>
+      <c r="J49" t="s">
+        <v>363</v>
+      </c>
+      <c r="K49" t="s">
+        <v>364</v>
+      </c>
+      <c r="L49" t="s">
+        <v>365</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>359</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>368</v>
+      </c>
+      <c r="J50" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" t="s">
+        <v>370</v>
+      </c>
+      <c r="L50" t="s">
+        <v>371</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>372</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J51" t="s">
+        <v>375</v>
+      </c>
+      <c r="K51" t="s">
+        <v>376</v>
+      </c>
+      <c r="L51" t="s">
+        <v>377</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>378</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>379</v>
+      </c>
+      <c r="X51" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s">
+        <v>386</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>378</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
+      </c>
+      <c r="J53" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>378</v>
+      </c>
+      <c r="O53" t="s">
+        <v>274</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>393</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>394</v>
+      </c>
+      <c r="J54" t="s">
+        <v>395</v>
+      </c>
+      <c r="K54" t="s">
+        <v>396</v>
+      </c>
+      <c r="L54" t="s">
+        <v>397</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>378</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>398</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s">
+        <v>153</v>
+      </c>
+      <c r="L55" t="s">
+        <v>401</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>402</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>403</v>
+      </c>
+      <c r="J56" t="s">
+        <v>404</v>
+      </c>
+      <c r="K56" t="s">
+        <v>405</v>
+      </c>
+      <c r="L56" t="s">
+        <v>406</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>407</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>409</v>
+      </c>
+      <c r="J57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s">
+        <v>411</v>
+      </c>
+      <c r="L57" t="s">
+        <v>412</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>413</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>414</v>
+      </c>
+      <c r="J58" t="s">
+        <v>415</v>
+      </c>
+      <c r="K58" t="s">
+        <v>416</v>
+      </c>
+      <c r="L58" t="s">
+        <v>417</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>418</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>419</v>
+      </c>
+      <c r="X58" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>422</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>423</v>
+      </c>
+      <c r="J59" t="s">
+        <v>424</v>
+      </c>
+      <c r="K59" t="s">
+        <v>425</v>
+      </c>
+      <c r="L59" t="s">
+        <v>426</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>427</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>428</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>429</v>
+      </c>
+      <c r="J60" t="s">
+        <v>430</v>
+      </c>
+      <c r="K60" t="s">
+        <v>431</v>
+      </c>
+      <c r="L60" t="s">
+        <v>432</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>328</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>434</v>
+      </c>
+      <c r="J61" t="s">
+        <v>435</v>
+      </c>
+      <c r="K61" t="s">
+        <v>436</v>
+      </c>
+      <c r="L61" t="s">
+        <v>437</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>427</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>439</v>
+      </c>
+      <c r="J62" t="s">
+        <v>440</v>
+      </c>
+      <c r="K62" t="s">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s">
+        <v>442</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>407</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>443</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>444</v>
+      </c>
+      <c r="J63" t="s">
+        <v>445</v>
+      </c>
+      <c r="K63" t="s">
+        <v>446</v>
+      </c>
+      <c r="L63" t="s">
+        <v>447</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>407</v>
+      </c>
+      <c r="O63" t="s">
+        <v>108</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>450</v>
+      </c>
+      <c r="J64" t="s">
+        <v>451</v>
+      </c>
+      <c r="K64" t="s">
+        <v>452</v>
+      </c>
+      <c r="L64" t="s">
+        <v>453</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>454</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>455</v>
+      </c>
+      <c r="X64" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>458</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>459</v>
+      </c>
+      <c r="J65" t="s">
+        <v>460</v>
+      </c>
+      <c r="K65" t="s">
+        <v>461</v>
+      </c>
+      <c r="L65" t="s">
+        <v>462</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>463</v>
+      </c>
+      <c r="O65" t="s">
+        <v>274</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>464</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>465</v>
+      </c>
+      <c r="J66" t="s">
+        <v>466</v>
+      </c>
+      <c r="K66" t="s">
+        <v>467</v>
+      </c>
+      <c r="L66" t="s">
+        <v>468</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>463</v>
+      </c>
+      <c r="O66" t="s">
+        <v>108</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>469</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>470</v>
+      </c>
+      <c r="J67" t="s">
+        <v>471</v>
+      </c>
+      <c r="K67" t="s">
+        <v>472</v>
+      </c>
+      <c r="L67" t="s">
+        <v>473</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>463</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>474</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>475</v>
+      </c>
+      <c r="J68" t="s">
+        <v>476</v>
+      </c>
+      <c r="K68" t="s">
+        <v>477</v>
+      </c>
+      <c r="L68" t="s">
+        <v>478</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>479</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>480</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>481</v>
+      </c>
+      <c r="J69" t="s">
+        <v>482</v>
+      </c>
+      <c r="K69" t="s">
+        <v>483</v>
+      </c>
+      <c r="L69" t="s">
+        <v>484</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>479</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>485</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>486</v>
+      </c>
+      <c r="J70" t="s">
+        <v>487</v>
+      </c>
+      <c r="K70" t="s">
+        <v>488</v>
+      </c>
+      <c r="L70" t="s">
+        <v>489</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>490</v>
+      </c>
+      <c r="O70" t="s">
+        <v>96</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>492</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>493</v>
+      </c>
+      <c r="J71" t="s">
+        <v>494</v>
+      </c>
+      <c r="K71" t="s">
+        <v>495</v>
+      </c>
+      <c r="L71" t="s">
+        <v>496</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>497</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>498</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>499</v>
+      </c>
+      <c r="J72" t="s">
+        <v>500</v>
+      </c>
+      <c r="K72" t="s">
+        <v>501</v>
+      </c>
+      <c r="L72" t="s">
+        <v>502</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>503</v>
+      </c>
+      <c r="X72" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>506</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>507</v>
+      </c>
+      <c r="J73" t="s">
+        <v>508</v>
+      </c>
+      <c r="K73" t="s">
+        <v>509</v>
+      </c>
+      <c r="L73" t="s">
+        <v>510</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>511</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>503</v>
+      </c>
+      <c r="X73" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>513</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>514</v>
+      </c>
+      <c r="J74" t="s">
+        <v>515</v>
+      </c>
+      <c r="K74" t="s">
+        <v>516</v>
+      </c>
+      <c r="L74" t="s">
+        <v>517</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>518</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>503</v>
+      </c>
+      <c r="X74" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>520</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>521</v>
+      </c>
+      <c r="J75" t="s">
+        <v>522</v>
+      </c>
+      <c r="K75" t="s">
+        <v>523</v>
+      </c>
+      <c r="L75" t="s">
+        <v>524</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>525</v>
+      </c>
+      <c r="O75" t="s">
+        <v>96</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>503</v>
+      </c>
+      <c r="X75" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>527</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>528</v>
+      </c>
+      <c r="J76" t="s">
+        <v>529</v>
+      </c>
+      <c r="K76" t="s">
+        <v>530</v>
+      </c>
+      <c r="L76" t="s">
+        <v>531</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>532</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>533</v>
+      </c>
+      <c r="X76" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>536</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>537</v>
+      </c>
+      <c r="J77" t="s">
+        <v>538</v>
+      </c>
+      <c r="K77" t="s">
+        <v>539</v>
+      </c>
+      <c r="L77" t="s">
+        <v>540</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>541</v>
+      </c>
+      <c r="O77" t="s">
+        <v>108</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>543</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>544</v>
+      </c>
+      <c r="J78" t="s">
+        <v>545</v>
+      </c>
+      <c r="K78" t="s">
+        <v>546</v>
+      </c>
+      <c r="L78" t="s">
+        <v>547</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>548</v>
+      </c>
+      <c r="O78" t="s">
+        <v>71</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>549</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>550</v>
+      </c>
+      <c r="J79" t="s">
+        <v>551</v>
+      </c>
+      <c r="K79" t="s">
+        <v>552</v>
+      </c>
+      <c r="L79" t="s">
+        <v>553</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>554</v>
+      </c>
+      <c r="O79" t="s">
+        <v>274</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>556</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>557</v>
+      </c>
+      <c r="J80" t="s">
+        <v>558</v>
+      </c>
+      <c r="K80" t="s">
+        <v>559</v>
+      </c>
+      <c r="L80" t="s">
+        <v>560</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>561</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>562</v>
+      </c>
+      <c r="X80" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>565</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>566</v>
+      </c>
+      <c r="J81" t="s">
+        <v>567</v>
+      </c>
+      <c r="K81" t="s">
+        <v>568</v>
+      </c>
+      <c r="L81" t="s">
+        <v>569</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>570</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>572</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>573</v>
+      </c>
+      <c r="J82" t="s">
+        <v>574</v>
+      </c>
+      <c r="K82" t="s">
+        <v>575</v>
+      </c>
+      <c r="L82" t="s">
+        <v>576</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>577</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>578</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>579</v>
+      </c>
+      <c r="J83" t="s">
+        <v>580</v>
+      </c>
+      <c r="K83" t="s">
+        <v>581</v>
+      </c>
+      <c r="L83" t="s">
+        <v>582</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>583</v>
+      </c>
+      <c r="O83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>584</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>585</v>
+      </c>
+      <c r="J84" t="s">
+        <v>586</v>
+      </c>
+      <c r="K84" t="s">
+        <v>587</v>
+      </c>
+      <c r="L84" t="s">
+        <v>588</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>589</v>
+      </c>
+      <c r="O84" t="s">
+        <v>96</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>591</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>592</v>
+      </c>
+      <c r="J85" t="s">
+        <v>593</v>
+      </c>
+      <c r="K85" t="s">
+        <v>594</v>
+      </c>
+      <c r="L85" t="s">
+        <v>595</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>596</v>
+      </c>
+      <c r="O85" t="s">
+        <v>108</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>598</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>599</v>
+      </c>
+      <c r="J86" t="s">
+        <v>600</v>
+      </c>
+      <c r="K86" t="s">
+        <v>601</v>
+      </c>
+      <c r="L86" t="s">
+        <v>602</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>604</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>605</v>
+      </c>
+      <c r="J87" t="s">
+        <v>606</v>
+      </c>
+      <c r="K87" t="s">
+        <v>607</v>
+      </c>
+      <c r="L87" t="s">
+        <v>608</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>609</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>610</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>611</v>
+      </c>
+      <c r="J88" t="s">
+        <v>612</v>
+      </c>
+      <c r="K88" t="s">
+        <v>613</v>
+      </c>
+      <c r="L88" t="s">
+        <v>614</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>615</v>
+      </c>
+      <c r="O88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>616</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>617</v>
+      </c>
+      <c r="J89" t="s">
+        <v>618</v>
+      </c>
+      <c r="K89" t="s">
+        <v>619</v>
+      </c>
+      <c r="L89" t="s">
+        <v>620</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>621</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>623</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>624</v>
+      </c>
+      <c r="J90" t="s">
+        <v>625</v>
+      </c>
+      <c r="K90" t="s">
+        <v>626</v>
+      </c>
+      <c r="L90" t="s">
+        <v>627</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>628</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>630</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>631</v>
+      </c>
+      <c r="J91" t="s">
+        <v>632</v>
+      </c>
+      <c r="K91" t="s">
+        <v>633</v>
+      </c>
+      <c r="L91" t="s">
+        <v>634</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>635</v>
+      </c>
+      <c r="X91" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>638</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>639</v>
+      </c>
+      <c r="J92" t="s">
+        <v>640</v>
+      </c>
+      <c r="K92" t="s">
+        <v>641</v>
+      </c>
+      <c r="L92" t="s">
+        <v>642</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>643</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>644</v>
+      </c>
+      <c r="J93" t="s">
+        <v>645</v>
+      </c>
+      <c r="K93" t="s">
+        <v>646</v>
+      </c>
+      <c r="L93" t="s">
+        <v>647</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>648</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>35377</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>649</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>650</v>
+      </c>
+      <c r="J94" t="s">
+        <v>651</v>
+      </c>
+      <c r="K94" t="s">
+        <v>652</v>
+      </c>
+      <c r="L94" t="s">
+        <v>653</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>653</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_697.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_697.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="745">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>planotexas2020</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>David R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r517331060-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve">Very nice room polite staff good stay would recommend this hotel and will probably it again when on business in Dallas. The staff was helpful rooms were clean the reception is a nice touch with a light dinner and drinks and a breakfast Buffett in the morning </t>
   </si>
   <si>
+    <t>Wendy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r517159634-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>We have a yearly event at work, and for three years now we've used this hotel. Our guests always ask for it. It sits right off the service road and the Dallas Tollway, in the heart of the business section of Addison. The hotel has been there a while, but it underwent a full renovation recently. It has clean, nicely decorated rooms, new decor and a hot-breakfast buffet. The GM, Shannon, is one of the nicest, most reliable people you can deal with, and the staff is prompt and friendly. I highly recommend it for large groups and / or corporate events.Other than a small pool located to the side (and not the best of them, but adequate) and the breakfast buffet, the hotel doesn't have any amenities, and it is also not close to attractions (The Dallas Galleria Mall is about 1.5 miles away). But among the hotels in the area, this one for sure is worth a try if you're looking for a nice and friendly place to stay at real competitive prices.NOTE: We didn't use the shuttle though I think they have one, but I think its availability is limited. Contact the hotel's front desk for any questions.More</t>
   </si>
   <si>
+    <t>MainIngredient</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r483524623-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>This property is very clean and the staff is friendly and helpful. The suite was much smaller than suites I have had at other Staybridge locations. This was a little disappointing to me.  I am accustomed to having my sleeping area totally separate from the rest of the suite.  I also found the kitchen area to be rather small. I do use the kitchen when I stay at Staybridge so it is important to me.  The exercise room was more than adequate for me to get my daily workout.  The pool area was also nice but during my stay it was too cool outside to use the pool.There is a hot breakfast daily and a social with a light dinner and free wine and beer  three nights a week (Monday-Wednesday).  I tip my hat to the sweet lady who prepares the breakfast and dinner.  She works very hard to make sure every one had what they need and she does it with a smile.More</t>
   </si>
   <si>
+    <t>captainron601</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r479132083-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>abilene_joe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r475010820-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>Reasonable rates for the location in North Dallas only minutes from the Galleria Mall. Bed was comfy, shower was great, and the room was a 2 room suite with a full kitchen. Breakfast was very tasty with all the items you know and love. Serving area was very clean and items were replaced as quickly as they were consumed. Hotel desk clerk was very friendly and helpful and check in/out was a breeze. We are returning to this hotel again this weekend!</t>
   </si>
   <si>
+    <t>Nadine R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r460497463-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Denise A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r455858327-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>JuanA678</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r453992283-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>I stayed at this hotel for 4 nights in a business trip. People at the front desk was very friendly, the room was very clean and comfortable, the breakfast was quite good.The location of the hotel is quite convenient, having</t>
   </si>
   <si>
+    <t>JN W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r431802051-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>djcollie03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r397043331-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>I've stayed at the Staybridge Addison twice and both stays were ok. Seems like a lot of long term guests many who are students in the area. Also saw a lot of guests with dogs - something I'm not used to seeing very often on the road. They do a nice job with daily breakfasts and the Monday-Wednesday dinner service was an unexpected benefit. There's not much around the area but, it's a short walk or Uber to downtown Addison where you can find bars etc. The rooms are set up with extended stay in mind - small kitchenettes and a larger seating area with a couch. Outdoor pool looks nice but I haven't used. The exercise room equipment is really dated. More</t>
   </si>
   <si>
+    <t>brooklyn n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r380701250-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -387,6 +423,9 @@
     <t xml:space="preserve">Very nice hotel!!! We had a suite with a pull out couch and a bedroom, the bedroom door did not lock but it was still nice to have 2 rooms. The room was clean and decent size. There was a full breakfast and the pool was nice and clean. Staff was friendly. All around u was a good stay. Only thing is gps wanted me to go in on the back side of the building and I drove around twice before I realized it was the hotel not an apt. Complex. They need a better sign so it's easier to find this hotel. </t>
   </si>
   <si>
+    <t>Larry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r372171642-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>rongtx1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r371704280-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -420,6 +462,9 @@
     <t>I'm a Vietnam Veteran and come back to Texas from where I live in Nicaragua twice a year for labs, doctors and treatments for my exposure to "Agent Orange" and always stay here at the Addison, Staybridge Suites. Unlike when I returned from Vietnam, I am welcomed back by everyone here, from the Mgr. Henry , front desk personal, kitchen staff, maintainence staff and house cleaning staff. Everyone here treats me as family. I have a limited budget and could stay at several other places but chose to stay here because how I'm treated. "it's a welcome back I never received when I returned home in 1968.</t>
   </si>
   <si>
+    <t>502aly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r371595558-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -435,6 +480,9 @@
     <t xml:space="preserve">We were in Dallas for two night to attend a conference. The room was nice enough, but not quite as nice as I have come to expect from Staybridge Suites. My only real complaint is that the mattress on the pull out couch had several stains. </t>
   </si>
   <si>
+    <t>usmcmsl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r364478650-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -453,6 +501,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>0jaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r364227703-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -466,6 +517,9 @@
   </si>
   <si>
     <t xml:space="preserve">Evening happy hour and food was unexpected. We enjoyed our stay. The hotel was just remodeled and looks brand new. All of Addison's great stores and restaurants are nearby. Close to Addison airport without the noise. </t>
+  </si>
+  <si>
+    <t>Karen D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r364000646-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
@@ -496,6 +550,9 @@
 For the price and location, this hotel was a great find!  The wi-if was free...We spent one night here the first weekend of April.  Arriving from the north was a bit tricky in locating the hotel, but coming from the south would have been a breeze.  The front desk staff was very courteous and welcomed us with a smile.Our room was surprisingly large with everything you might need for one night or many nights.  The main room had a sleeper sofa and an overstuffed chair as well as a large TV and nice sized desk.  The full kitchen was also located in this room and was fully stocked with dishes, pans and silverware.The bedroom was a separate room with closing doors.  It had a very comfortable king bed with two nightstands.  The pillows were to fluffy for our tastes, but were okay for one night.  If we had stayed longer, I would have asked for flatter pillows.The bathroom area was split with a separate room for the tub/shower and toilet and another room with a large vanity and closet just off the bedroom.  There was plenty of room for two people to stand at the vanity together.The free breakfast had both hot and cold food.  There was scrambled eggs and sausage in the hot plates and cereals, breads, fruit and juices.  There was also a waffle machine if you wanted to make yourself a waffle.For the price and location, this hotel was a great find!  The wi-if was free and worked great.  I would definitely recommend it and would stay there again if we're back in that area.More</t>
   </si>
   <si>
+    <t>Sarah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r361351674-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -523,6 +580,9 @@
     <t>The rooms were recently renovated so there was no issue with the actual room. However, the walls are VERY thin. I didn't sleep well any of my 3 nights because I could hear traffic (close to the highway), constant elevator noises and loud guests walking through the halls at night. Although the rooms were ok, I probably wouldn't stay there again.More</t>
   </si>
   <si>
+    <t>donaldwu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r359204185-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -547,6 +607,9 @@
     <t>I was the guest check in on Mar/23 and check out on Mar/24, was advised the invoice will be sent to me the other day due to hotel system restriction. It's Mar/27 and I haven't got any email regarding my invoice.More</t>
   </si>
   <si>
+    <t>nicholas_mckenzie212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r353091005-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -565,6 +628,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>markypotter1977</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r346751337-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -580,6 +646,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Keith E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r345937202-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -595,6 +664,9 @@
     <t>We stayed one night in late January due to my improper scheduling for a convention. Although the room was small, it had all the necessary items to make the stay enjoyable. A full size coffee pot was a great plus. Easy to get in  and out of and a very friendly staff.</t>
   </si>
   <si>
+    <t>NeilRocks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r343833761-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -610,6 +682,9 @@
     <t xml:space="preserve">Room was nicely renovated. Light dinner is M-W.  Front desk Ryan is ever so polite and professional.  Free laundry is very helpful.  Expanded breakfast daily.  Only hiccup, hard to find from the street due to the lack of signage.  </t>
   </si>
   <si>
+    <t>Sean M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r334473764-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -637,6 +712,9 @@
     <t>As an introductory disclaimer, I used an award night redemption and booked the room only a few hours before arriving.The room was great, and the hotel was very quiet. There was plenty of space, the kitchen had what I needed, and the desk are was adequate.  Though my stay was not of the extended variety, I'm sure I'd be equally satisfied with the aforementioned regardless of stay length.  The wireless internet was borderline unusable. On my laptop, it was extraordinarily lethargic.  Using my mobile phone, I had to turn the wireless off because it was taking over a minute just to navigate from one web page to another.Also, the breakfast was not good. The eggs smelled sulfuric and, although they tasted fine, I just could not get past the smell when I'd take a bite. The honeydew were rock hard and sour, tasting more like a lemon than a melon. Finally, the waffle batter dispenser was empty, which was a major bummer and perhaps the low point of 2015 for me.I probably would not stay here again, solely because I am a big fan of breakfast, and there are much better options for complimentary hotel breakfasts. If you can do without breakfast or Internet, the comfort and noise level of the hotel are as good as it gets.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r333355881-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -661,6 +739,9 @@
     <t>The hotel is clean. It's fine as long as you don't require lights in your room. Literally had to go to my car to put makeup on because the bathroom was so dark. Went down the street to the 7-11 and bought light bulbs so I could get some work done at the desk. More</t>
   </si>
   <si>
+    <t>ASP-78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r328692799-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -682,6 +763,9 @@
     <t>I have been at this Hotel since July and LOVE IT!!! I was very lucky to get one of the new rooms from the start and they are AMAZING. The free food and drinks are of good quality and who complains about a free HOT breakfast 7 days a week and free dinner 3 days a week that includes alcohol during dinner time. The staff are amazing people, Front Office, Housekeeping, and the Cooks. Adam has been really amazing during my stay and very helpful. As a guest of this hotel I saw a review and wanted to say that this hotel is FAR FAR from discriminating unlike the review states (specially for the reason). All you need to do is look at all the different staff they have working here. This hotel WILL charge you if you smoke in your room as its a NON smoking hotel. You sign a disclaimer when you check-in that lets you know if you smoke in your room you will be charged. I think its a good thing people get charged when they smoke in their room as it’s VERY inconsiderate for other guest as their smoke is smelled in the halls and at times in the rooms so your cloths end up smelling of cigarette smoke. One small thing and that is the internet yes its free but some days its SOOOO slow it can drive you crazy as you can't do...I have been at this Hotel since July and LOVE IT!!! I was very lucky to get one of the new rooms from the start and they are AMAZING. The free food and drinks are of good quality and who complains about a free HOT breakfast 7 days a week and free dinner 3 days a week that includes alcohol during dinner time. The staff are amazing people, Front Office, Housekeeping, and the Cooks. Adam has been really amazing during my stay and very helpful. As a guest of this hotel I saw a review and wanted to say that this hotel is FAR FAR from discriminating unlike the review states (specially for the reason). All you need to do is look at all the different staff they have working here. This hotel WILL charge you if you smoke in your room as its a NON smoking hotel. You sign a disclaimer when you check-in that lets you know if you smoke in your room you will be charged. I think its a good thing people get charged when they smoke in their room as it’s VERY inconsiderate for other guest as their smoke is smelled in the halls and at times in the rooms so your cloths end up smelling of cigarette smoke. One small thing and that is the internet yes its free but some days its SOOOO slow it can drive you crazy as you can't do anything. When I come back to Addison this will be my #1 choice. Keep up the GREAT work.More</t>
   </si>
   <si>
+    <t>travelingmama36</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r297366595-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -709,6 +793,9 @@
     <t>I have stayed in several Staybrige Suites. This is buy far the worst . Customer service here is horrible. They come up with bocus charges to charge your card especially with African Americana. Saying they need to cover damage to the room and smoke damage. 1 day they say its for the pantry incase you may use it they next its for damage . I will never stay again . But on a good note the food is good and fresh . Pool is clean . House keeping does an amazing job . Just front desk staff is horrible!!!More</t>
   </si>
   <si>
+    <t>DNewbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r292115866-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -748,6 +835,9 @@
     <t>Hotel is under routine renovation.  The construction crews work during the day so this is no problem.  Lauren, check-in associate, is absolutely one of the most professional hotel staff that I have encountered. Natalie, sales manager, took time out of her busy day to help me with the computer access in the business center.  Every staff member that I encountered asked me if they may be of assistance.  Room on the third floor was located across from the elevator.  I did not hear the elevator throughout my entire stay.  The room was spotless and fresh.  It had a kitchen with utensils so that you may cook if you elect.  The bathroom had a full bathtub/shower.  Bedding was wonderful. Free wifi and free laundry facilities.  Gym includes a variety of gym equipment but they do not have an exercise bike available. Full breakfast includes everything -- meat, two types of eggs, oatmeal/cereal, waffles, fresh fruit variety, cottage cheese, toast/muffins, etc.  They have a Tues-Thurs evening dinner with beer/wine. You will be pleased with this incredible facility.More</t>
   </si>
   <si>
+    <t>Tammy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r257561770-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -775,6 +865,9 @@
     <t>This hotel is in desperate need of an update.  The common areas were not cleaned the entire time we were there.  Very old and run down on the inside.  The furniture was dated, worn and the beds were very uncomfortable.  The staff was friendly and very helpful.  The location was in close proximity of good restaurants and shopping.  The breakfast was good and the breakfast staff was friendly.More</t>
   </si>
   <si>
+    <t>JMLH1985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r253707949-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -793,6 +886,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>gtesfa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r252961426-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -817,6 +913,9 @@
     <t>I stayed one night and it was the worst bed and mattress I have ever seen. Do not be fooled by the outside look. It is very old and noisy with mechanical repair, street and people in the hallway. Their mattress almost broke my neck in the morning. Bed is at least 10 year old, with a roller in the bottom. But, yes it is clean and they have an average breakfast. Bottom line, I would not go their to rest for a good night sleep.More</t>
   </si>
   <si>
+    <t>Luis W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r219726804-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -835,6 +934,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>txscch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r217655913-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -853,6 +955,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Mamavon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r208202502-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -877,6 +982,9 @@
     <t>A queen bed is a queen bed. You can't put a full bed in the room and call it a queen. If your website says you have a king suite avaliable then you sld have one avaliable. If your website says you have a jaquizzi by the pool and shows pictures of a jaquizzi by the pool then I'm gonna be expecting one by the pool. Currently staying here for a small weekend get away but very disappointed. It looked perfect on line but after check in it didn't take long to discover it was all lies More</t>
   </si>
   <si>
+    <t>Bob C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r202839209-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -898,6 +1006,9 @@
     <t>I had the pleasure of staying at the Staybridge Suites during the month of April for an extended business trip. The rooms are efficiency units with 2 burner stove top microwave oven and a refrigerator The staff was extremely helpful and friendly. The variety of the daily breakfast was changed each day so that I was never bored with the same choices.  Tuesday through Thursday they had a managers reception where complimentary wine or beer as well as different dinner items were featured. It varied from hamburgers 2 tacos from sandwiches to pasta dishes. I would highly recommend the Staybridge Suites Dallas Addison for any business traveler planning A extended stay trip.More</t>
   </si>
   <si>
+    <t>Mstric1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r195735358-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1033,9 @@
     <t>One of the worst customer experiences for a hotel that I have ever had. The staff is uncaring and the standard response to every inquiry is that there is nothing u can do about that. If you book a room with a sleeper sofa but advised that it does not come with full linens. The sofa bed has two sheets and nothing else. I would change hotels if I could but all rooms are booked in the city. While other staybridge properties my be fine, this one has ruined the reputation of the entire chain for me and I will never stay at this hotel brand again. More</t>
   </si>
   <si>
+    <t>DMBen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r187313154-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1057,9 @@
     <t>We were very pleased with our stay at Staybridge Suites Dallas!  The room and bathroom were very clean.  I know Staybridge is used a lot for business travel, but we loved the set up of the room for our family.  Having a separate bedroom with a TV was a big plus.  This allowed everyone to have a shot at watching what they liked at some point during wind down time.  All staff members we encountered were very friendly.  It is not really close to much of the attractions or downtown, but it is close to an In-n-out Burger which is a plus! Check in and Check out went very smoothly.  This was a great experience for us and will definitely be our choice on our next weekend getaway to Dallas.  Can't wait!More</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r182121414-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1075,9 @@
     <t>We stayed here for the night while visiting my daughter at UT Dallas.  The room was clean, spacious and comfortable.  The only complaint I have is the the sleeper sofa was overused in that you couldn't sit on it without feeling like you were sitting on the floor.  Otherwise a great place.  And the breakfast was awesome and everything was fresh.</t>
   </si>
   <si>
+    <t>Cryoking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r181496120-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1102,9 @@
     <t>Got to the property after midnight, clerk was very friendly. Property could use some updates. Carpeting in hallway and room was stained, several bathroom tiles were cracked. Mattress was sunk in in the middle. Breakfast was great. I went down 10 minutes before they stop serving, &amp; newly cooked bacon was brought out. Most properties wouldn't do that! Overall a decent stay. Staff &amp; breakfast were great, rooms just need a little $$ thrown their way. More</t>
   </si>
   <si>
+    <t>Doug S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r180527255-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -997,6 +1120,9 @@
     <t>Brought in 10 members of my team for a 2 day meeting.  Henry was VERY helpful in getting everything organized and set up.  Staff all very accomodating and helpful.  Meeting room was small, but fine for our group.  (I'd suggest installing a pull down screen for future meetings!).  They helped with everything from sourcing a projector, room set up, power for laptops, conf phone, recommending and ordering lunch, drinks during the breaks, etc.Rooms were also very nice - large with kitchen, flat screen HD TV's.  Free breakfast was good.  All things considered, a very good value and we will be back for our next meeting.</t>
   </si>
   <si>
+    <t>MaRyjanE8340319</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r169128750-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1024,6 +1150,9 @@
     <t>The customer service was horrible, from the room mixup, to the shuttle situation, and mostly with the key problems. The rooms were clean and the room service was friendly. When we first arrived at this hotel there was trouble, from our room not being available, (we got a free upgrade, but had to wait almost two hours!!!) to the shuttle service dropping us off and we had to walk back to the hotel!!!! When we arrived, we had prepaid for the stay in full. But obviously there was a miscommunication and our room was already gone !!! So we were upgraded to a suite. Then we went to go dine and the shuttle service dropped us off. They said they would be back in about 1.5 hours. We had to wait 3 hours. My brother actually started walking back to the hotel, but there were little children (ages 4-10; about 5 children) and I was not about to walk along a busy street with them when the shuttle service was supposed to pick us up. We called the hotel numerous times but we never got an answer. They finally showed up with not even an apology. We stayed a total of two nights, on the second floor. But every time we tried to get in our room, the key wouldn't work. We had to get keys remade on both nights!!! It was a tiring situation. The fact that we had...The customer service was horrible, from the room mixup, to the shuttle situation, and mostly with the key problems. The rooms were clean and the room service was friendly. When we first arrived at this hotel there was trouble, from our room not being available, (we got a free upgrade, but had to wait almost two hours!!!) to the shuttle service dropping us off and we had to walk back to the hotel!!!! When we arrived, we had prepaid for the stay in full. But obviously there was a miscommunication and our room was already gone !!! So we were upgraded to a suite. Then we went to go dine and the shuttle service dropped us off. They said they would be back in about 1.5 hours. We had to wait 3 hours. My brother actually started walking back to the hotel, but there were little children (ages 4-10; about 5 children) and I was not about to walk along a busy street with them when the shuttle service was supposed to pick us up. We called the hotel numerous times but we never got an answer. They finally showed up with not even an apology. We stayed a total of two nights, on the second floor. But every time we tried to get in our room, the key wouldn't work. We had to get keys remade on both nights!!! It was a tiring situation. The fact that we had just come from site seeing with children, all of us tired, and having to go back downstairs to get another key made!!! Overall would I stay there again?? Heck no, not after all that trouble we went through. The hot breakfast was good though, but there wasn't enough seating to accommodate people. I heard some griping about having to go back to their rooms to eat breakfast.More</t>
   </si>
   <si>
+    <t>ICness</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r165824905-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1177,9 @@
     <t>I've stayed at several Staybridge Suites, my preferred hotel. My 7-year old son and I were on a weekend trip &amp; stayed here. Room was smaller than expected. TV is in suite area &amp; not viewable from the bed, huge detraction. Pool desperately needs cleaning, hot tub did not work and was disgusting. Breakfast was clean &amp; typical of the chain, though coffee kept running on short supply. Front desk staff was excellent, can't say enough good things about them. More</t>
   </si>
   <si>
+    <t>bkahlich</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r162922642-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1198,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Ar1356</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r161937240-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1090,6 +1225,9 @@
     <t>The bathrooms are grungy, the rooms have a weird smell, and I honestly don't think place could pass a black light test on any level. There is black scum or posdibly mold in the bathrooms. the AC is really loud when its running. The location is decent. They do allow pets. More</t>
   </si>
   <si>
+    <t>fyre926</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r160937853-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1249,9 @@
     <t>I often stay at Candlewood properties so this was my first stay at a Staybridge. First thing I learned is they offer FREE fountain pop 24/7. For the soda drinkers out there this is a welcome inclusion in the amenities column! Also free breakfast every morning and they have evening food events as well during certain days of the week. The site has 2 buildings and I was in the 2nd on but it was easy to get in &amp; out of no matter where I was heading. Room was clean &amp; well kept, housekeeping each day was great even though they only do a "light" job. All in all thumbs up!More</t>
   </si>
   <si>
+    <t>iKneadavacation</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r160221449-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1129,6 +1270,9 @@
     <t>Stayed here for 5 nights on business trip.  Hotel was comfortable, great beds.  Like the suite set-up, nice to have a fridge and microwave in the room.  There was also a WalMart right down the road for provisions which was very handy. The hotel does have a small pool and hot tub with a nice grilling area outdoors.  Another nice touch was the reception Tues-Thursday with appetizers and beer.  The best part was free fountain soda (pop to us from the north) in the lobby.  Morning breakfast buffet was included, had good variety, waffles, fresh fruit, eggs, pastries and bacon or sausage.  The staff was very nice and helpful with every request. The place could use a little updating of the details; carpet was frayed in several spots in the room, water spots on hallway ceiling and the trim on the lampshade in the bedroom area was hanging down.  Also the first morning the hair dryer decided it was time give up the ghost, but the staff found a replacement right away.  Would certainly stay here again for business or pleasure trip.More</t>
   </si>
   <si>
+    <t>LuanaBS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r157878976-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1291,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Jim T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r157593532-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1174,6 +1321,9 @@
     <t>As a long time business traveler, I was not impressed at all.There was a dead roach on the floor in the closet and the telephone worked about half the time.There are better options in the area for the same money.Unfortunately this is what can happen when the company books your room.More</t>
   </si>
   <si>
+    <t>hospitality911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r156640267-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1339,9 @@
     <t>This was my first time to stay at a Staybridge-Dallas location and it will not be my last. The employees in every department of the hotel were courteous and always spoke to me. My room was clean and had every accommodation of home. The location is close to the tollway. The breakfast had a good selection. Great experience!!!</t>
   </si>
   <si>
+    <t>JENS6916</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r154089496-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1207,6 +1360,9 @@
     <t>We were very pleased with our stay!  My husband and I stayed here for 3 nights and I would like to compliment the Staybridge staff, as the greeting we received at check in was perfect... even outstanding!  The front desk check in crew responded quickly to the road weary travelers that we were after battling heavy traffic in Dallas and a long drive.  Their check in was fast and friendly. It was their mid week happy hour and they kindly served us refreshments!  I would like to thank Dana T. as she again helped us with refreshments in the lobby the next day when we were spending time with our friends.  And our room was great!  This is not a brand new facility, but it is being managed well.My only complaint is the elevator had a "funny" smell.More</t>
   </si>
   <si>
+    <t>bkrug78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r153939066-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1222,6 +1378,9 @@
     <t>We stayed for 4 nights and thoroughly enjoyed the staff and the hotel. The breakfasts were great and it was nice to have coffee in the lobby at all hours of the day for free. The hotel has an outside pool and hot tub and when we visited it was not warm enough to use the pool, but the hot tub was just perfect. Next to the pool area they have BBQ's to use too. Nice central location. We would stay there again.</t>
   </si>
   <si>
+    <t>Travel Mom D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r152211439-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1234,6 +1393,9 @@
     <t>Stayed for 6 nights. Very convenient to everything we needed. Quiet area, ample parking, comfortable beds, clean room, nice breakfast choices. Friendly staff! Couldn't have asked for anything more.  Thanks! We will recommend this hotel to our friends who may be staying in the area.</t>
   </si>
   <si>
+    <t>The-GCC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r147641553-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1252,6 +1414,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>XDallasGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r147556630-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1430,9 @@
   </si>
   <si>
     <t>Ive stayed here before and often on extended stays when I'm in Dallas for work. The rooms are comfortable, the service attentive and they offer full hot and cold breakfast daily. The wifi is complimentary to guests and three nights during the week they provide a lite dinner. The staff is also friendly and accommodating.</t>
+  </si>
+  <si>
+    <t>Trailblazer2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r147523825-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
@@ -1298,6 +1466,9 @@
 The staff were courteous ....however, issue with the rate and the clogged drain in the shower is...I made my reservation using our company travel agency. The confirmed daily rate was for $117.00 per night. However, the hotel charged me $126.00 per night. Speaking with the assistant manager, the printed confirmation number and rate is not valid. He refused to honor the confirmd $117 rate by making the adjustment at the time of check out. He instead offered to process a refund which would take 7 to 10 days. I'm a priority club member, platinum status and for the last five years all of the confirmed rates have been honored by the hotels I have stayed in. I'm on the road 80% each month...I have earned the platinum status. In respect to the accommodations, the drain in the shower was clogged ...needless to say a major inconvenience. Within seconds I was angle deep in water in the shower. I had to rinse....turn off the water.....lather...wait for the water to drain...rinse...turn off the water...lather....repeat. There was only one remote control for two incompatible TVs. Some of the channels in one TV were not accessible on the other TV. The carpets are very very dirty. I never walk barefoot in a hotel. The whites socks were dark grey within an hour just walking around the room. Luckily, I carry extra socks with me for those hotels that dont wash the carpets regularly.The staff were courteous ....however, issue with the rate and the clogged drain in the shower is major turn off. Forunately there is a Candlewood Suites a few miles south. On my next business trip scheduled for next quarter, I will try that hotel.More</t>
   </si>
   <si>
+    <t>luvtotravelSanDiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r141361095-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1316,6 +1487,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Alex D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r140089785-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1331,6 +1505,9 @@
     <t>My daughter and I recently enjoyed a most pleasant stay at the Staybridge Suites, whilst visiting my husband , who is staying there longterm. Nothing was too much trouble for the friendly staff and everything in the hotel was of a good standard including cleanliness. The breakfasts were lovely with ample choice and the availability of a light supper 3 times a week , inclusive of beer or wine , was an added bonus. The shuttle service was invaluable as it enabled us to get out and about within a short radius of the hotel. Would not hesitate to stay there again</t>
   </si>
   <si>
+    <t>Paul R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r139698456-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1346,6 +1523,9 @@
     <t>Currently - Front desk personnel were very accommodating.  Staybridge as usual will not let you down.  The pillows were comfortable.  Kitchen area was clean (as usual).  Utensils supplied were clean and newer.  Enjoy.</t>
   </si>
   <si>
+    <t>lware</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r131159387-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1361,6 +1541,9 @@
     <t>We came to Dallas for a doctors appointment. We were happy to find a full kitchen.  Staff was very friendly.  The room was clean and quiet.  We will stay here again.</t>
   </si>
   <si>
+    <t>emmasue1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r130468759-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1379,6 +1562,9 @@
     <t>We had to visit an animal diagnostic clinic in Dallas and the staff there recommended this hotel as allowing pets that have appts with the clinic.  We have a large (well behaved and housebroken) dog and requested a 1st floor room near a back exit door.  We were given exactly what we asked and it was beyond convenient.  We were a little concerned at first that the room might have a smell of "animals have stayed here" aroma but the exact opposite was true.  It was extremely clean and nicely accomodated.  They even offer a not-quite-inhouse order to go menu with a strong focus on salads, pizza and pasta.  We had a piping hot pizza and 2 house salads (and cheesecake!) in our room within 45 minutes.We stayed at this hotel because of our dog but would absoluely return on our own-staff and accomodations were very great!More</t>
   </si>
   <si>
+    <t>bbade514</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r129729212-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1406,6 +1592,9 @@
     <t>I stayed at the Staybridge Suites in Addison, Texas for a business trip in April 2012. I don't know why or how the other reviews are so great because this property is not the greatest and needs improvement. Upon checking in, I noticed that the office behind the front desk looked like a tornado had gone through it. Papers, books, etc all over the floor and desk. Upon getting to the room, I noticed that the deadbolt lock was broke in half. I did not think twice on the first night, but on day 2, I noticed that my white socks had turned black and I was wearing new shoes. Took a white washcloth and took a sample of the floor in 4 different places in both rooms that I had and the cloth turned black. (picture attached) Notified the front desk on the first day of a dog barking in the room across the hall. She attempted to contact the room, but no answer. Told me to call or come back later if it continued. The pool was filthy on the bottom and the spa was worse. The side entrance on the north side of the building looked like  the landscaping had not been taken care of in sometime and the door did not close on it's own leaving it open to anyone who wanted to come in. The property in general looked old and tired. As a Priority...I stayed at the Staybridge Suites in Addison, Texas for a business trip in April 2012. I don't know why or how the other reviews are so great because this property is not the greatest and needs improvement. Upon checking in, I noticed that the office behind the front desk looked like a tornado had gone through it. Papers, books, etc all over the floor and desk. Upon getting to the room, I noticed that the deadbolt lock was broke in half. I did not think twice on the first night, but on day 2, I noticed that my white socks had turned black and I was wearing new shoes. Took a white washcloth and took a sample of the floor in 4 different places in both rooms that I had and the cloth turned black. (picture attached) Notified the front desk on the first day of a dog barking in the room across the hall. She attempted to contact the room, but no answer. Told me to call or come back later if it continued. The pool was filthy on the bottom and the spa was worse. The side entrance on the north side of the building looked like  the landscaping had not been taken care of in sometime and the door did not close on it's own leaving it open to anyone who wanted to come in. The property in general looked old and tired. As a Priority Club Platinum member, I spend several nights per year in IHG hotels and this was not the best  Staybridge Suites that I have ever stayed in. Wrote to IHG, did the random survey that I was sent, and requested a call back. It took 3 1/2 weeks, but the general manager did call to apologize for the issues that I had during my stay. Hope that this property will improve in the future.More</t>
   </si>
   <si>
+    <t>Evan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r127917805-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1424,6 +1613,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>Bryan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r126713477-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1439,6 +1631,9 @@
     <t>Great service, amazing hot breakfast, clean rooms, full kitchen, granite countertops, nice pool and spa, enjoyed our stay there, very close to the galleria and shopping.</t>
   </si>
   <si>
+    <t>Jane S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r126518724-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1649,9 @@
     <t>We loved staying at the Staybridge Suites in Dallas Addison. The staff and maintenence were very friendly and they made us feel like we were right at home. They welcomed us in the doorway and said hello or gave us a sweet smile in the hallway.The rooms were clean and it felt like home. The location could'nt be any better. So close to all the shopping malls! We look forward to staying here the next time we stop in Dallas! Thanks for the best hotel experience for my family.</t>
   </si>
   <si>
+    <t>Renee222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r125426302-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1670,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Alberto R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r124386828-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1688,9 @@
     <t>I stay at the Staybridge week after week.  My stays are excellent.  The rooms are always clean, the staff is always kind and generous, and the food and drinks at happy hour are served by the kindest lady one can meet.</t>
   </si>
   <si>
+    <t>Joy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r122602858-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1508,6 +1712,9 @@
     <t>I resided at Staybridge Suites this past fall for about six weeks while I was looking for employment in Dallas.  Not having put much emphasis in where I stayed, I was looking for a place that was clean and felt safe.  Within the first 30 minutes of checking in, I met Sean Twedt, General Manager, and Dana Taylor, Director of Sales.  They were so professional and addressed any questions or concerns that I had.  In a short matter of time, I started to feel very comfortable there -- like it was my safe haven.  I had been through a lot of emotional stress prior to my stay, and this was the "retreat" that I needed to regroup.  The staff were very friendly and professional, the facilities were extremely clean, and the atmosphere was one of family.More</t>
   </si>
   <si>
+    <t>Mathieu O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r121419713-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1526,6 +1733,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Emily B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r120594396-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1550,6 +1760,9 @@
     <t>Stayed one night only, wish we could have stayed more. Very clean, well appointed. Great location. The staff was great. Breakfast was more than just muffins and coffee. We will definitely be back for shopping trip or sports event soon. More</t>
   </si>
   <si>
+    <t>Ashok M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r120505038-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1571,6 +1784,9 @@
     <t>Excellent Location, very friendly and cheerfull staff and a well managed Hotel with comfy rooms &amp; bedsThe Hotel &amp; the rooms  are always clean &amp; fresh and it shows the management cares about the appearance and their guests. The Hotel serves full breakfast every morning omlettes, sausages, muffins fresh fruits, yoghurt, milk etc..... They also serve a delicious  buffet dinner Tue - Thr with beer &amp; wine on the house.  We stayed for more than 2 months since 7th Sep and we feel it is our second home. We highly recommend this highly personalized Hotel to anyone. Ashok Malkani &amp; familyMore</t>
   </si>
   <si>
+    <t>Nylo1970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r118503747-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1592,6 +1808,9 @@
     <t>After extensive research and inspections of Dallas area Extended Stay hotels, I chose this one and couldn’t have been more satisfied! The rooms are all updated with granite countertops in the Bathrooms, Flat Screens w/ premium cable,  mini Kitchenettes etc..You get complimentary Golds Gym privileges, Hot Breakfast each morning and Dinner in the evening and some nights Happy Hour w/ Wine and Beer. Washer and Dryer are also complimentary. The location is perfect with easy access off the Toll Road and its quiet. You can walk across the street to a few restaurants including Uncle Julio’s for great Tex Mex. Housekeeping did a great Job and the entire staff treats you like family. The guests are mostly Pilots for training at the Addison Airport so its preofessional.   I am so happy that picked this hotel for my 2 month stay!More</t>
   </si>
   <si>
+    <t>JanetReed_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r117810194-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1613,6 +1832,9 @@
     <t>Let me tell you about Staybridge Suites Dallas-Addison. Being displaced from my home due to a vehicle driving through the bathroom wall, I found Staybridge right up the road. I began my stay at the end of May and stayed until the repairs were completed the first of September. Life at Staybridge is better than being at home. The entire staff at Staybridge are exceptional! They all make you feel at home. And, the various extended-stay tenants are so much fun to socialize with during the breakfasts and Sundowners. I made some friends whom I know I will keep in contact with for years. If you're looking for a warm, personable place to stay in North Dallas where you will feel welcome, you must choose Staybridge Suites Dallas-Addison!More</t>
   </si>
   <si>
+    <t>triplezsoftware</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r115325530-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1640,6 +1862,9 @@
     <t>I have stayed here for over 3 months now after starting a new job in Addison,TX. I love it!!!More</t>
   </si>
   <si>
+    <t>PinkVibes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r94274585-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1661,6 +1886,9 @@
     <t>Excellent location for quick access anywhere.  In a great neighbourhood (affluent Addison).  Hotel was clean and felt like 'home'.  Very friendly staff.  Check out their sense of humour on their YouTube video.  The hot breakfast was a huge plus.  It was a delicious full buffet breakfast, not just a continental type one.  Comfortable rooms, great price for a suite that has a kitchen.  Comfortable beds, slept well.  Closest Hotel to Mary Kay's World Headquarters.  Galleria is just a 10 min drive away.  Outlet shopping at Allen, Tx is just a 20-30 min drive away.  International airport is also a 30 min drive.  Downtown: 20 mins away.   A few minutes drive from the heart of the Addison restaurant strip.  Everything you need.  Free internet and free parking.  Would definitely stay there again.  We did not use the small outdoor pool as it was only in the 20's F when we were there.More</t>
   </si>
   <si>
+    <t>rafiqtaher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r92146008-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1679,6 +1907,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>kennyp354</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r86785230-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1700,6 +1931,9 @@
     <t>A few friends and I were looking for a place to stay for just one night while visiting Dallas for a concert.   Staybridge was one of the only places we could find that had a true 2 bedroom suite for such a great price.   The suite was perfect for three people, and the hotel was very well managed.   The free morning breakfast was awesome and we loved chatting with the super friendly food attendant.   The gentleman at the front desk (manager?) was very helpful and made us feel welcome.   I have stayed at the Staybridge chain in a few cities now because of the value &amp; professionalism of their operations, and I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>advisoruser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r70394840-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1727,6 +1961,9 @@
     <t>We stayed at this hotel one night and it was one night too many.  First, they simply did not have the king size suite we reserved.  Already booked--too bad.  Bait and switch?  Staff did the best they could to give us a decent alternative.  Sadly, though, the air conditioning in the smaller room did not work .  The next room, also smaller, had a major leak in the ceiling of the bathroom.  By then, we decided to just put down some towels and hope for the best so we could get on with our evening.  We were told that the management would call us to see how to make things right.  We never heard a word.  On checking out the next day, we continued to request some kind of compensation so the desk operator deducted $20 from the bill.Don't stay here--there are too many other options.Following years of good leads from tripadvisor reviews, this is the second BIG miss in one month.  How disappointing!More</t>
   </si>
   <si>
+    <t>aby8915</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r63797690-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1748,6 +1985,9 @@
     <t>I visited the place in July 2008, The premier choice for extended stay hotel reservations in the Addison Texas area of the North Dallas Metroplex is  the one and only "Staybridge Suites Addison Hotel...The Staybridge Suites Addison Hotel is centrally located at Dallas Parkway and Keller Springs Road in the heart of corporate America with nearby corporate headquarters for ATT, Metro PCSI enjoyed  fabulous North Dallas shopping at the Galleria Dallas, Valley View Mall and Shops at Willow Bend. Golf is plentiful with nearby courses such as Bear Creek, Chase Oaks and Indian Creek to name a few. its my recommendation for Both business travelers and those vacationing in the North Dallas Addison area will find their comfortable extended stay hotel accommodations perfect!More</t>
   </si>
   <si>
+    <t>ramanpahwa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r63378163-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1766,6 +2006,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>Jamey D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r47337404-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1782,6 +2025,9 @@
   </si>
   <si>
     <t>October 2009</t>
+  </si>
+  <si>
+    <t>mrstangblb</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r45674382-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
@@ -1811,6 +2057,9 @@
 Plan your route to stay away from the toll road as best you can, and be SURE to bring a GPS. The Dallas traffic...Best hotel stay I’ve ever had, especially for the moneyI cannot say enough positive things about the stay I had at the Staybridge Suites in Addison (Dallas). The staff were all very friendly and extremely helpful; the continental breakfast was one of the biggest and best that I have ever seen to be included in the cost of a hotel stay; the room was really big and accommodating for me (I’m 6’-6" tall and like big areas, and having a separate kitchen, resting area, sleeping area, and closet were great for me); and security was pretty decent for the area, too. The location is excellent - it’s in a safe part of town that is fairly centrally located to anything you need to go to. The only weird part is that there is a toll booth about 500 yards from the hotel, so if you go that way on the highway and come back you have to pay something like $1 to go through the gate and then turn immediately into the hotel parking lot! The deal I got through Expedia was awesome. Having this hotel stay was icing on the cake (even if the Dallas Cowboys did lose their game, I had a great time staying here!).Traveler's tip on saving a few bucksPlan your route to stay away from the toll road as best you can, and be SURE to bring a GPS. The Dallas traffic is FAST, and if you don’t know where you are going, you will get lost in a big hurry!More</t>
   </si>
   <si>
+    <t>lauren m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r33615163-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1832,6 +2081,9 @@
     <t>My husband and I attended a wedding at the Prestonwood Country Club and decided to stay at this hotel instead of driving back home that evening.Upon check-in, we inquired about the breakfast hours (breakfast is included) and found we would be leaving too early as we had a flight out of DFW at 0700 the next morning.  The clerk asked if we'd like a 'to-go' breakfast and we accepted.Upon check-in, we found the room to be spacious, well-appointed and clean.  The kitchenette included a microwave, sink, stove, dishwasher, refrigerator and coffee maker.  Very handy if you're staying more than one evening.Upon inquiring about their 'free shuttle', we were advised it only operates on weekdays; however they had an out-of-town hotel employee staying there who volunteered to drive us to the wedding!  Great service!When we checked out in the morning, the clerk (a different one) asked if we were the ones needing the breakfast to go and produced a bag with 2 cartons of milk, fruit, bagels and sweet breads....how nice was that?Good value $69 plus tax, booked on their website, and a pretty good location if you're up in that part of town!  Nearby food includes Subway, Uncle Julio's and a few more if you're able to drive to them.Based on this visit, we'd definitely stay at another property in this chain!More</t>
   </si>
   <si>
+    <t>Anasof</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r22623575-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1850,6 +2102,9 @@
     <t>My teenage daughter and I stayed for 4 nights at this well located hotel. We stayed before at Staybridge suites in Houston and San Antonio and this was very similar. It's very nice to have breakfast in the morning and to be able to take it to your room. This particular hotel does not have a table or similar to sit down and eat, we have to do it at the sofa with the coffee tables, which was a little bit uncomfortable. We experienced some troubles with our door lock but were immediately transfered to another room which was fine, and the staff was very very courteous and helpful. Close by is a Walmart so you can fill your fridge and prepare dinner. We definitely stay again in any Staybridge.More</t>
   </si>
   <si>
+    <t>normzilla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r22015440-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1868,6 +2123,9 @@
     <t>November 2008</t>
   </si>
   <si>
+    <t>powerplantop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r21655137-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1886,6 +2144,9 @@
     <t>August 2008</t>
   </si>
   <si>
+    <t>sheepswife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r14938562-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1905,6 +2166,9 @@
   </si>
   <si>
     <t>I very much enjoyed my stay. My room was clean and the kitchen was ready for use with utensils, plates, glasses and cooking supplies already there. Although they said there was no maid service during the weekend, my room was cleaned. I was on the first floor right next to the lobby and the room was still very quiet. The air conditioner was so noisy though that I did need to turn it off to be able to sleep.  I was plenty cool with it off, so it was not an issue.  The separate sitting area was great for visiting with my friends.  My only complaint is that although I had reserved a crib, I did not have one when I arrived. There are only 2 cribs for this very large hotel so, be sure you reconfirm your crib before you arrive.More</t>
+  </si>
+  <si>
+    <t>Katieboo20</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r6017241-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
@@ -1936,6 +2200,9 @@
 The hotel has its own laundry (great for those longer stays), small gym (basic equipment),...I've recently spent a number of weeks staying at this hotel, on my transitional move to the USA. We stayed in the largest suite, and was fortunate to be at the end of the last building, it was almost like a home from home. My husband and I stayed there for 2-3 weeks at a time on 3 occasions, while we transitioned.The hotel is very clean and has everything you need, the rooms are fully equipped with tv (with cable) fridge freezer (with ice maker) microwave, hob and a full range of crockery and utensils. The larger suites have separate bedrooms to the living areas which is great if one of you wants to go to bed and the other wants to stay up watching movies.Everything is very local, there is a petrol station over the road, that sells all of your basics, incl Subway! 2 bar and grills in the same area. Walmart is a short drive (10 minute walk up the road), and there is a fab all you can eat chinese buffet on the way for $7.95 per head.the hotel provides a complimentary continental breakfast, which although small is more than adequate, you have a selelction of muffins, bagels, egg/sausage (needs to be warmed in microwave) fresh fruit and pastries, coffee is available in receiption 24 hours a day.The hotel has its own laundry (great for those longer stays), small gym (basic equipment), and a pool and spa (great for the Texas Summer).We were so impressed by this hotel that we have made this our corporate hotel (our office is just across the car park), and have recently had directors and managers staying there, and they have been more than happy with the service.The staff are friendly and very helpfull, even when you get a few problems (which inevitably you will if you stay there as long as we did). The building is secure, with key card access to get in the main building, and then into the rooms.The hotel will be undergoing a refurbishment shortly, and I'm sure this will just enhance an already great establishment.More</t>
   </si>
   <si>
+    <t>mpick123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r5790170-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1960,6 +2227,9 @@
     <t>My car was broken into and I had some things stolen.  I know I shouldn't leave things in my car, and yes there were signs posted but sometimes people forget after a long day.  When speaking with the police I learned that this was NOT the first time this had happend.  The officer dusting for fingerprints said to me, "yeah, this definitly isn't the first time I've seen this parking lot."  The signs posted tell you not to leave valuables in your car but all this does is waive any liability and tell criminals that there aren't any security cameras.  After multiple break ins, I would expect the hotel to take care of their customers, but the staff was pretty apathetic about the situation.More</t>
   </si>
   <si>
+    <t>tad01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r4775300-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1991,6 +2261,9 @@
   </si>
   <si>
     <t>November 2004</t>
+  </si>
+  <si>
+    <t>akn127</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109353-r2781426-Staybridge_Suites_Dallas_Addison-Dallas_Texas.html</t>
@@ -2510,43 +2783,47 @@
       <c r="A2" t="n">
         <v>35377</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177942</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2566,50 +2843,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35377</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>1644</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2623,50 +2904,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35377</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>11155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2686,50 +2971,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35377</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177943</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>64</v>
-      </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2749,50 +3038,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35377</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177944</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2810,50 +3103,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35377</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177945</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2873,50 +3170,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35377</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>66680</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2936,50 +3237,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35377</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>40261</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2997,50 +3302,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35377</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177946</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3054,50 +3363,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35377</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177947</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3111,50 +3424,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35377</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177948</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3166,56 +3483,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="X12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35377</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177949</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3229,50 +3550,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35377</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>18699</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3292,50 +3617,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35377</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177950</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3359,50 +3688,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35377</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177951</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3426,50 +3759,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35377</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177952</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3493,50 +3830,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35377</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>177953</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3560,50 +3901,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35377</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3623,50 +3968,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35377</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>16153</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3688,56 +4037,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35377</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177954</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3759,56 +4112,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="X21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35377</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177955</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3832,50 +4189,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35377</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177956</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3899,50 +4260,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35377</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>112520</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3962,50 +4327,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35377</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177957</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4019,50 +4388,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35377</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>9933</v>
+      </c>
+      <c r="C26" t="s">
+        <v>218</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4080,56 +4453,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="X26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="Y26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35377</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4141,56 +4518,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="X27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35377</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177958</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4208,50 +4589,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35377</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177959</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4263,56 +4648,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="X29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35377</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177960</v>
+      </c>
+      <c r="C30" t="s">
+        <v>255</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4326,50 +4715,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35377</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177956</v>
+      </c>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4387,50 +4780,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35377</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>5794</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4448,56 +4845,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="X32" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="Y32" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35377</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177961</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4517,50 +4918,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35377</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177962</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="K34" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4578,56 +4983,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="X34" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="Y34" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35377</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>177963</v>
+      </c>
+      <c r="C35" t="s">
+        <v>295</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4645,50 +5054,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35377</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>111403</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4702,41 +5115,45 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35377</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177964</v>
+      </c>
+      <c r="C37" t="s">
+        <v>309</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
@@ -4763,56 +5180,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="X37" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="Y37" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35377</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>1124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>318</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="J38" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4826,41 +5247,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35377</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177965</v>
+      </c>
+      <c r="C39" t="s">
+        <v>326</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="K39" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="L39" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -4887,56 +5312,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="X39" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="Y39" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35377</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>49829</v>
+      </c>
+      <c r="C40" t="s">
+        <v>335</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4960,50 +5389,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35377</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C41" t="s">
+        <v>343</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="J41" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5027,50 +5460,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35377</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177966</v>
+      </c>
+      <c r="C42" t="s">
+        <v>349</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="J42" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5082,56 +5519,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="X42" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="Y42" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35377</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>48008</v>
+      </c>
+      <c r="C43" t="s">
+        <v>358</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="J43" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="K43" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5155,50 +5596,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35377</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>17121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>364</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="J44" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="K44" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5220,47 +5665,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="X44" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="Y44" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35377</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>22166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>374</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="K45" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="L45" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
@@ -5277,56 +5726,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="X45" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="Y45" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35377</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177967</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="J46" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="K46" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5350,41 +5803,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35377</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177968</v>
+      </c>
+      <c r="C47" t="s">
+        <v>390</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="J47" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="K47" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="L47" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
@@ -5411,56 +5868,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="X47" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="Y47" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35377</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>177969</v>
+      </c>
+      <c r="C48" t="s">
+        <v>399</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="J48" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="K48" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5484,50 +5945,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35377</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>177970</v>
+      </c>
+      <c r="C49" t="s">
+        <v>407</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="J49" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5551,50 +6016,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35377</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>177971</v>
+      </c>
+      <c r="C50" t="s">
+        <v>414</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="J50" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5618,50 +6087,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35377</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>24505</v>
+      </c>
+      <c r="C51" t="s">
+        <v>421</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="J51" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="K51" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5683,56 +6156,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="X51" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="Y51" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35377</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>177972</v>
+      </c>
+      <c r="C52" t="s">
+        <v>431</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="J52" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="K52" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="L52" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5756,50 +6233,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35377</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>177973</v>
+      </c>
+      <c r="C53" t="s">
+        <v>437</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="J53" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="O53" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5823,50 +6304,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35377</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177974</v>
+      </c>
+      <c r="C54" t="s">
+        <v>444</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="J54" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="K54" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="L54" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5890,41 +6375,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35377</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>141850</v>
+      </c>
+      <c r="C55" t="s">
+        <v>450</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="J55" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="K55" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -5943,50 +6432,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35377</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>22245</v>
+      </c>
+      <c r="C56" t="s">
+        <v>455</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="J56" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="K56" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="L56" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6010,41 +6503,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35377</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>177975</v>
+      </c>
+      <c r="C57" t="s">
+        <v>462</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="J57" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="K57" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="L57" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6073,50 +6570,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>35377</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>177976</v>
+      </c>
+      <c r="C58" t="s">
+        <v>468</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="J58" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="K58" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6138,56 +6639,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="X58" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="Y58" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>35377</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177977</v>
+      </c>
+      <c r="C59" t="s">
+        <v>478</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="J59" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="K59" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="L59" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6211,50 +6716,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>35377</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>14449</v>
+      </c>
+      <c r="C60" t="s">
+        <v>485</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="J60" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="K60" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="L60" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="O60" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6278,50 +6787,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>35377</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>2144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>491</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="J61" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="K61" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="L61" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6345,50 +6858,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>35377</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>177978</v>
+      </c>
+      <c r="C62" t="s">
+        <v>497</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="J62" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K62" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="L62" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6412,50 +6929,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>35377</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177979</v>
+      </c>
+      <c r="C63" t="s">
+        <v>503</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="J63" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="K63" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="L63" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="O63" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6479,50 +7000,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>35377</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177980</v>
+      </c>
+      <c r="C64" t="s">
+        <v>510</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="J64" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="K64" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="L64" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6544,56 +7069,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="X64" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="Y64" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>35377</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>33185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>520</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="J65" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="K65" t="s">
-        <v>461</v>
+        <v>524</v>
       </c>
       <c r="L65" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="O65" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6617,50 +7146,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>35377</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>101027</v>
+      </c>
+      <c r="C66" t="s">
+        <v>527</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="J66" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="K66" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="L66" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="O66" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6684,50 +7217,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>35377</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>7193</v>
+      </c>
+      <c r="C67" t="s">
+        <v>533</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="J67" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="K67" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="L67" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="O67" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6751,50 +7288,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>35377</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>177981</v>
+      </c>
+      <c r="C68" t="s">
+        <v>539</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="J68" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="K68" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="L68" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6818,50 +7359,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>35377</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>177982</v>
+      </c>
+      <c r="C69" t="s">
+        <v>546</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="J69" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="K69" t="s">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="L69" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6885,50 +7430,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>35377</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>1436</v>
+      </c>
+      <c r="C70" t="s">
+        <v>552</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="J70" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="K70" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
       <c r="L70" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="O70" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6952,50 +7501,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>35377</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>177983</v>
+      </c>
+      <c r="C71" t="s">
+        <v>560</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
       <c r="J71" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="K71" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="L71" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7019,41 +7572,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>35377</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>149</v>
+      </c>
+      <c r="C72" t="s">
+        <v>567</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
       <c r="J72" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="K72" t="s">
-        <v>501</v>
+        <v>571</v>
       </c>
       <c r="L72" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
@@ -7080,56 +7637,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="X72" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="Y72" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>35377</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177984</v>
+      </c>
+      <c r="C73" t="s">
+        <v>576</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
       <c r="J73" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="K73" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="L73" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
       <c r="O73" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7151,56 +7712,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="X73" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="Y73" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>35377</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>177985</v>
+      </c>
+      <c r="C74" t="s">
+        <v>584</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="J74" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="K74" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="L74" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7222,56 +7787,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="X74" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="Y74" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>35377</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>177986</v>
+      </c>
+      <c r="C75" t="s">
+        <v>592</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="J75" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="K75" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="L75" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="O75" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7289,56 +7858,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="X75" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="Y75" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>35377</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>177987</v>
+      </c>
+      <c r="C76" t="s">
+        <v>600</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="J76" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="K76" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
       <c r="L76" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7356,56 +7929,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="X76" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
       <c r="Y76" t="s">
-        <v>535</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>35377</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>177988</v>
+      </c>
+      <c r="C77" t="s">
+        <v>610</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>536</v>
+        <v>611</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="J77" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="K77" t="s">
-        <v>539</v>
+        <v>614</v>
       </c>
       <c r="L77" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>541</v>
+        <v>616</v>
       </c>
       <c r="O77" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7429,50 +8006,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>35377</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>177989</v>
+      </c>
+      <c r="C78" t="s">
+        <v>618</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>543</v>
+        <v>619</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="J78" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="K78" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="L78" t="s">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="O78" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7496,50 +8077,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>547</v>
+        <v>623</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>35377</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>177990</v>
+      </c>
+      <c r="C79" t="s">
+        <v>625</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>549</v>
+        <v>626</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
       <c r="J79" t="s">
-        <v>551</v>
+        <v>628</v>
       </c>
       <c r="K79" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="L79" t="s">
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="O79" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7563,50 +8148,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>35377</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>177991</v>
+      </c>
+      <c r="C80" t="s">
+        <v>633</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>557</v>
+        <v>635</v>
       </c>
       <c r="J80" t="s">
-        <v>558</v>
+        <v>636</v>
       </c>
       <c r="K80" t="s">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="L80" t="s">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -7628,56 +8217,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="X80" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="Y80" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>35377</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>177992</v>
+      </c>
+      <c r="C81" t="s">
+        <v>643</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>565</v>
+        <v>644</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>566</v>
+        <v>645</v>
       </c>
       <c r="J81" t="s">
-        <v>567</v>
+        <v>646</v>
       </c>
       <c r="K81" t="s">
-        <v>568</v>
+        <v>647</v>
       </c>
       <c r="L81" t="s">
-        <v>569</v>
+        <v>648</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7701,50 +8294,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>571</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>35377</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>177993</v>
+      </c>
+      <c r="C82" t="s">
+        <v>651</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>573</v>
+        <v>653</v>
       </c>
       <c r="J82" t="s">
-        <v>574</v>
+        <v>654</v>
       </c>
       <c r="K82" t="s">
-        <v>575</v>
+        <v>655</v>
       </c>
       <c r="L82" t="s">
-        <v>576</v>
+        <v>656</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7768,50 +8365,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>576</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>35377</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>177994</v>
+      </c>
+      <c r="C83" t="s">
+        <v>658</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="J83" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="K83" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="L83" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="O83" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7835,50 +8436,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>35377</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>177995</v>
+      </c>
+      <c r="C84" t="s">
+        <v>665</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="J84" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="K84" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="L84" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="O84" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7902,50 +8507,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>35377</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>177996</v>
+      </c>
+      <c r="C85" t="s">
+        <v>673</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>591</v>
+        <v>674</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="J85" t="s">
-        <v>593</v>
+        <v>676</v>
       </c>
       <c r="K85" t="s">
-        <v>594</v>
+        <v>677</v>
       </c>
       <c r="L85" t="s">
-        <v>595</v>
+        <v>678</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>596</v>
+        <v>679</v>
       </c>
       <c r="O85" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7969,41 +8578,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>597</v>
+        <v>680</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>35377</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>100537</v>
+      </c>
+      <c r="C86" t="s">
+        <v>681</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>598</v>
+        <v>682</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="J86" t="s">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="K86" t="s">
-        <v>601</v>
+        <v>685</v>
       </c>
       <c r="L86" t="s">
-        <v>602</v>
+        <v>686</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
@@ -8032,50 +8645,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>603</v>
+        <v>687</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>35377</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>177997</v>
+      </c>
+      <c r="C87" t="s">
+        <v>688</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>604</v>
+        <v>689</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>605</v>
+        <v>690</v>
       </c>
       <c r="J87" t="s">
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="K87" t="s">
-        <v>607</v>
+        <v>692</v>
       </c>
       <c r="L87" t="s">
-        <v>608</v>
+        <v>693</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>609</v>
+        <v>694</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8099,50 +8716,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>608</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>35377</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>22302</v>
+      </c>
+      <c r="C88" t="s">
+        <v>695</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>610</v>
+        <v>696</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>611</v>
+        <v>697</v>
       </c>
       <c r="J88" t="s">
-        <v>612</v>
+        <v>698</v>
       </c>
       <c r="K88" t="s">
-        <v>613</v>
+        <v>699</v>
       </c>
       <c r="L88" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>615</v>
+        <v>701</v>
       </c>
       <c r="O88" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8166,50 +8787,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>35377</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>177998</v>
+      </c>
+      <c r="C89" t="s">
+        <v>702</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>616</v>
+        <v>703</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>617</v>
+        <v>704</v>
       </c>
       <c r="J89" t="s">
-        <v>618</v>
+        <v>705</v>
       </c>
       <c r="K89" t="s">
-        <v>619</v>
+        <v>706</v>
       </c>
       <c r="L89" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8233,50 +8858,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>35377</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>177999</v>
+      </c>
+      <c r="C90" t="s">
+        <v>710</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>623</v>
+        <v>711</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>624</v>
+        <v>712</v>
       </c>
       <c r="J90" t="s">
-        <v>625</v>
+        <v>713</v>
       </c>
       <c r="K90" t="s">
-        <v>626</v>
+        <v>714</v>
       </c>
       <c r="L90" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>628</v>
+        <v>716</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8300,41 +8929,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>35377</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>178000</v>
+      </c>
+      <c r="C91" t="s">
+        <v>718</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>630</v>
+        <v>719</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>631</v>
+        <v>720</v>
       </c>
       <c r="J91" t="s">
-        <v>632</v>
+        <v>721</v>
       </c>
       <c r="K91" t="s">
-        <v>633</v>
+        <v>722</v>
       </c>
       <c r="L91" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
@@ -8351,47 +8984,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>635</v>
+        <v>724</v>
       </c>
       <c r="X91" t="s">
-        <v>636</v>
+        <v>725</v>
       </c>
       <c r="Y91" t="s">
-        <v>637</v>
+        <v>726</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>35377</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>178001</v>
+      </c>
+      <c r="C92" t="s">
+        <v>727</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="J92" t="s">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="K92" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="L92" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
@@ -8418,50 +9055,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>35377</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>228</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>644</v>
+        <v>734</v>
       </c>
       <c r="J93" t="s">
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="K93" t="s">
-        <v>646</v>
+        <v>736</v>
       </c>
       <c r="L93" t="s">
-        <v>647</v>
+        <v>737</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>648</v>
+        <v>738</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8483,41 +9124,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>647</v>
+        <v>737</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>35377</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C94" t="s">
+        <v>739</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>649</v>
+        <v>740</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>650</v>
+        <v>741</v>
       </c>
       <c r="J94" t="s">
-        <v>651</v>
+        <v>742</v>
       </c>
       <c r="K94" t="s">
-        <v>652</v>
+        <v>743</v>
       </c>
       <c r="L94" t="s">
-        <v>653</v>
+        <v>744</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8536,7 +9181,7 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>653</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
